--- a/lexic/transitionsDescription.xlsx
+++ b/lexic/transitionsDescription.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="42">
   <si>
     <t>estado</t>
   </si>
@@ -130,14 +130,34 @@
   </si>
   <si>
     <t>ER</t>
+  </si>
+  <si>
+    <t>PR01</t>
+  </si>
+  <si>
+    <t>incluir</t>
+  </si>
+  <si>
+    <t>PR02</t>
+  </si>
+  <si>
+    <t>principal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -171,10 +191,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:AO37"/>
+  <dimension ref="A2:AQ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AM18" sqref="AM18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -785,11 +806,11 @@
       <c r="E9" t="s">
         <v>37</v>
       </c>
-      <c r="F9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>28</v>
       </c>
       <c r="H9" t="s">
         <v>37</v>
@@ -819,7 +840,7 @@
         <v>37</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R9" t="s">
         <v>37</v>
@@ -827,8 +848,8 @@
       <c r="S9" t="s">
         <v>37</v>
       </c>
-      <c r="T9" t="s">
-        <v>37</v>
+      <c r="T9">
+        <v>41</v>
       </c>
       <c r="U9" t="s">
         <v>37</v>
@@ -887,8 +908,8 @@
       <c r="AM9" t="s">
         <v>37</v>
       </c>
-      <c r="AN9" t="s">
-        <v>37</v>
+      <c r="AN9">
+        <v>1</v>
       </c>
       <c r="AO9" t="s">
         <v>37</v>
@@ -910,11 +931,11 @@
       <c r="E10" t="s">
         <v>37</v>
       </c>
-      <c r="F10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" t="s">
-        <v>37</v>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>28</v>
       </c>
       <c r="H10" t="s">
         <v>37</v>
@@ -944,7 +965,7 @@
         <v>37</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R10" t="s">
         <v>37</v>
@@ -952,8 +973,8 @@
       <c r="S10" t="s">
         <v>37</v>
       </c>
-      <c r="T10" t="s">
-        <v>37</v>
+      <c r="T10">
+        <v>41</v>
       </c>
       <c r="U10" t="s">
         <v>37</v>
@@ -1006,14 +1027,14 @@
       <c r="AK10" t="s">
         <v>37</v>
       </c>
-      <c r="AL10" t="s">
-        <v>37</v>
+      <c r="AL10">
+        <v>1</v>
       </c>
       <c r="AM10" t="s">
         <v>37</v>
       </c>
-      <c r="AN10" t="s">
-        <v>37</v>
+      <c r="AN10">
+        <v>1</v>
       </c>
       <c r="AO10" t="s">
         <v>37</v>
@@ -1769,7 +1790,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:43">
       <c r="A17" s="2">
         <v>8</v>
       </c>
@@ -1881,20 +1902,20 @@
       <c r="AK17" t="s">
         <v>37</v>
       </c>
-      <c r="AL17" t="s">
-        <v>37</v>
+      <c r="AL17">
+        <v>9</v>
       </c>
       <c r="AM17" t="s">
         <v>37</v>
       </c>
-      <c r="AN17" t="s">
-        <v>37</v>
+      <c r="AN17">
+        <v>9</v>
       </c>
       <c r="AO17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:43">
       <c r="A18" s="2">
         <v>9</v>
       </c>
@@ -1949,8 +1970,8 @@
       <c r="R18" t="s">
         <v>37</v>
       </c>
-      <c r="S18">
-        <v>10</v>
+      <c r="S18" t="s">
+        <v>37</v>
       </c>
       <c r="T18" t="s">
         <v>37</v>
@@ -2009,7 +2030,7 @@
       <c r="AL18" t="s">
         <v>37</v>
       </c>
-      <c r="AM18" t="s">
+      <c r="AM18" s="3" t="s">
         <v>37</v>
       </c>
       <c r="AN18" t="s">
@@ -2018,8 +2039,14 @@
       <c r="AO18" t="s">
         <v>37</v>
       </c>
+      <c r="AP18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:43">
       <c r="A19" s="2">
         <v>10</v>
       </c>
@@ -2047,36 +2074,36 @@
       <c r="I19" t="s">
         <v>37</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" t="s">
+        <v>37</v>
+      </c>
+      <c r="M19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N19" t="s">
+        <v>37</v>
+      </c>
+      <c r="O19" t="s">
+        <v>37</v>
+      </c>
+      <c r="P19" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>37</v>
+      </c>
+      <c r="R19" t="s">
+        <v>37</v>
+      </c>
+      <c r="S19">
         <v>11</v>
       </c>
-      <c r="K19" t="s">
-        <v>37</v>
-      </c>
-      <c r="L19" t="s">
-        <v>37</v>
-      </c>
-      <c r="M19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N19" t="s">
-        <v>37</v>
-      </c>
-      <c r="O19" t="s">
-        <v>37</v>
-      </c>
-      <c r="P19" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>37</v>
-      </c>
-      <c r="R19" t="s">
-        <v>37</v>
-      </c>
-      <c r="S19" t="s">
-        <v>37</v>
-      </c>
       <c r="T19" t="s">
         <v>37</v>
       </c>
@@ -2144,7 +2171,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:43">
       <c r="A20" s="2">
         <v>11</v>
       </c>
@@ -2172,8 +2199,8 @@
       <c r="I20" t="s">
         <v>37</v>
       </c>
-      <c r="J20" t="s">
-        <v>37</v>
+      <c r="J20">
+        <v>12</v>
       </c>
       <c r="K20" t="s">
         <v>37</v>
@@ -2187,8 +2214,8 @@
       <c r="N20" t="s">
         <v>37</v>
       </c>
-      <c r="O20">
-        <v>12</v>
+      <c r="O20" t="s">
+        <v>37</v>
       </c>
       <c r="P20" t="s">
         <v>37</v>
@@ -2269,7 +2296,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:43">
       <c r="A21" s="2">
         <v>12</v>
       </c>
@@ -2279,42 +2306,42 @@
       <c r="C21" t="s">
         <v>37</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21" t="s">
+        <v>37</v>
+      </c>
+      <c r="L21" t="s">
+        <v>37</v>
+      </c>
+      <c r="M21" t="s">
+        <v>37</v>
+      </c>
+      <c r="N21" t="s">
+        <v>37</v>
+      </c>
+      <c r="O21">
         <v>13</v>
       </c>
-      <c r="E21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" t="s">
-        <v>37</v>
-      </c>
-      <c r="J21" t="s">
-        <v>37</v>
-      </c>
-      <c r="K21" t="s">
-        <v>37</v>
-      </c>
-      <c r="L21" t="s">
-        <v>37</v>
-      </c>
-      <c r="M21" t="s">
-        <v>37</v>
-      </c>
-      <c r="N21" t="s">
-        <v>37</v>
-      </c>
-      <c r="O21" t="s">
-        <v>37</v>
-      </c>
       <c r="P21" t="s">
         <v>37</v>
       </c>
@@ -2394,7 +2421,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:43">
       <c r="A22" s="2">
         <v>13</v>
       </c>
@@ -2404,8 +2431,8 @@
       <c r="C22" t="s">
         <v>37</v>
       </c>
-      <c r="D22" t="s">
-        <v>37</v>
+      <c r="D22">
+        <v>14</v>
       </c>
       <c r="E22" t="s">
         <v>37</v>
@@ -2422,8 +2449,8 @@
       <c r="I22" t="s">
         <v>37</v>
       </c>
-      <c r="J22">
-        <v>14</v>
+      <c r="J22" t="s">
+        <v>37</v>
       </c>
       <c r="K22" t="s">
         <v>37</v>
@@ -2519,7 +2546,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:43">
       <c r="A23" s="2">
         <v>14</v>
       </c>
@@ -2547,8 +2574,8 @@
       <c r="I23" t="s">
         <v>37</v>
       </c>
-      <c r="J23" t="s">
-        <v>37</v>
+      <c r="J23">
+        <v>15</v>
       </c>
       <c r="K23" t="s">
         <v>37</v>
@@ -2568,8 +2595,8 @@
       <c r="P23" t="s">
         <v>37</v>
       </c>
-      <c r="Q23">
-        <v>15</v>
+      <c r="Q23" t="s">
+        <v>37</v>
       </c>
       <c r="R23" t="s">
         <v>37</v>
@@ -2644,58 +2671,58 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:43">
       <c r="A24" s="2">
         <v>15</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24" t="s">
+        <v>37</v>
+      </c>
+      <c r="M24" t="s">
+        <v>37</v>
+      </c>
+      <c r="N24" t="s">
+        <v>37</v>
+      </c>
+      <c r="O24" t="s">
+        <v>37</v>
+      </c>
+      <c r="P24" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q24">
         <v>16</v>
       </c>
-      <c r="C24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-      <c r="I24" t="s">
-        <v>37</v>
-      </c>
-      <c r="J24" t="s">
-        <v>37</v>
-      </c>
-      <c r="K24" t="s">
-        <v>37</v>
-      </c>
-      <c r="L24" t="s">
-        <v>37</v>
-      </c>
-      <c r="M24" t="s">
-        <v>37</v>
-      </c>
-      <c r="N24" t="s">
-        <v>37</v>
-      </c>
-      <c r="O24" t="s">
-        <v>37</v>
-      </c>
-      <c r="P24" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>37</v>
-      </c>
       <c r="R24" t="s">
         <v>37</v>
       </c>
@@ -2769,12 +2796,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:43">
       <c r="A25" s="2">
         <v>16</v>
       </c>
-      <c r="B25" t="s">
-        <v>37</v>
+      <c r="B25">
+        <v>17</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
@@ -2806,8 +2833,8 @@
       <c r="L25" t="s">
         <v>37</v>
       </c>
-      <c r="M25">
-        <v>17</v>
+      <c r="M25" t="s">
+        <v>37</v>
       </c>
       <c r="N25" t="s">
         <v>37</v>
@@ -2894,7 +2921,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:41">
+    <row r="26" spans="1:43">
       <c r="A26" s="2">
         <v>17</v>
       </c>
@@ -2931,8 +2958,8 @@
       <c r="L26" t="s">
         <v>37</v>
       </c>
-      <c r="M26" t="s">
-        <v>37</v>
+      <c r="M26">
+        <v>18</v>
       </c>
       <c r="N26" t="s">
         <v>37</v>
@@ -3019,27 +3046,273 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27" spans="1:43">
       <c r="A27" s="2">
         <v>18</v>
       </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27" t="s">
+        <v>37</v>
+      </c>
+      <c r="L27" t="s">
+        <v>37</v>
+      </c>
+      <c r="M27" t="s">
+        <v>37</v>
+      </c>
+      <c r="N27" t="s">
+        <v>37</v>
+      </c>
+      <c r="O27" t="s">
+        <v>37</v>
+      </c>
+      <c r="P27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>37</v>
+      </c>
+      <c r="R27" t="s">
+        <v>37</v>
+      </c>
+      <c r="S27" t="s">
+        <v>37</v>
+      </c>
+      <c r="T27" t="s">
+        <v>37</v>
+      </c>
+      <c r="U27" t="s">
+        <v>37</v>
+      </c>
+      <c r="V27" t="s">
+        <v>37</v>
+      </c>
+      <c r="W27" t="s">
+        <v>37</v>
+      </c>
+      <c r="X27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL27">
+        <v>19</v>
+      </c>
+      <c r="AM27">
+        <v>19</v>
+      </c>
+      <c r="AN27">
+        <v>19</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:43">
       <c r="A28" s="2">
         <v>19</v>
       </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" t="s">
+        <v>37</v>
+      </c>
+      <c r="J28" t="s">
+        <v>37</v>
+      </c>
+      <c r="K28" t="s">
+        <v>37</v>
+      </c>
+      <c r="L28" t="s">
+        <v>37</v>
+      </c>
+      <c r="M28" t="s">
+        <v>37</v>
+      </c>
+      <c r="N28" t="s">
+        <v>37</v>
+      </c>
+      <c r="O28" t="s">
+        <v>37</v>
+      </c>
+      <c r="P28" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>37</v>
+      </c>
+      <c r="R28" t="s">
+        <v>37</v>
+      </c>
+      <c r="S28" t="s">
+        <v>37</v>
+      </c>
+      <c r="T28" t="s">
+        <v>37</v>
+      </c>
+      <c r="U28" t="s">
+        <v>37</v>
+      </c>
+      <c r="V28" t="s">
+        <v>37</v>
+      </c>
+      <c r="W28" t="s">
+        <v>37</v>
+      </c>
+      <c r="X28" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29" spans="1:43">
       <c r="A29" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30" spans="1:43">
       <c r="A30" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" spans="1:43">
       <c r="A31" s="2">
         <v>22</v>
       </c>

--- a/lexic/transitionsDescription.xlsx
+++ b/lexic/transitionsDescription.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="44">
   <si>
     <t>estado</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>principal</t>
+  </si>
+  <si>
+    <t>PR03</t>
+  </si>
+  <si>
+    <t>escribe</t>
   </si>
 </sst>
 </file>
@@ -492,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:AQ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AM18" sqref="AM18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AP41" sqref="AP41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3306,18 +3312,1009 @@
       <c r="A29" s="2">
         <v>20</v>
       </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" t="s">
+        <v>37</v>
+      </c>
+      <c r="J29" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29" t="s">
+        <v>37</v>
+      </c>
+      <c r="L29" t="s">
+        <v>37</v>
+      </c>
+      <c r="M29" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" t="s">
+        <v>37</v>
+      </c>
+      <c r="O29" t="s">
+        <v>37</v>
+      </c>
+      <c r="P29" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>37</v>
+      </c>
+      <c r="R29" t="s">
+        <v>37</v>
+      </c>
+      <c r="S29" t="s">
+        <v>37</v>
+      </c>
+      <c r="T29">
+        <v>21</v>
+      </c>
+      <c r="U29" t="s">
+        <v>37</v>
+      </c>
+      <c r="V29" t="s">
+        <v>37</v>
+      </c>
+      <c r="W29" t="s">
+        <v>37</v>
+      </c>
+      <c r="X29" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="30" spans="1:43">
       <c r="A30" s="2">
         <v>21</v>
       </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30">
+        <v>22</v>
+      </c>
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" t="s">
+        <v>37</v>
+      </c>
+      <c r="J30" t="s">
+        <v>37</v>
+      </c>
+      <c r="K30" t="s">
+        <v>37</v>
+      </c>
+      <c r="L30" t="s">
+        <v>37</v>
+      </c>
+      <c r="M30" t="s">
+        <v>37</v>
+      </c>
+      <c r="N30" t="s">
+        <v>37</v>
+      </c>
+      <c r="O30" t="s">
+        <v>37</v>
+      </c>
+      <c r="P30" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>37</v>
+      </c>
+      <c r="R30" t="s">
+        <v>37</v>
+      </c>
+      <c r="S30" t="s">
+        <v>37</v>
+      </c>
+      <c r="T30" t="s">
+        <v>37</v>
+      </c>
+      <c r="U30" t="s">
+        <v>37</v>
+      </c>
+      <c r="V30" t="s">
+        <v>37</v>
+      </c>
+      <c r="W30" t="s">
+        <v>37</v>
+      </c>
+      <c r="X30" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="31" spans="1:43">
       <c r="A31" s="2">
         <v>22</v>
       </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" t="s">
+        <v>37</v>
+      </c>
+      <c r="J31" t="s">
+        <v>37</v>
+      </c>
+      <c r="K31" t="s">
+        <v>37</v>
+      </c>
+      <c r="L31" t="s">
+        <v>37</v>
+      </c>
+      <c r="M31" t="s">
+        <v>37</v>
+      </c>
+      <c r="N31" t="s">
+        <v>37</v>
+      </c>
+      <c r="O31" t="s">
+        <v>37</v>
+      </c>
+      <c r="P31" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>37</v>
+      </c>
+      <c r="R31" t="s">
+        <v>37</v>
+      </c>
+      <c r="S31">
+        <v>23</v>
+      </c>
+      <c r="T31" t="s">
+        <v>37</v>
+      </c>
+      <c r="U31" t="s">
+        <v>37</v>
+      </c>
+      <c r="V31" t="s">
+        <v>37</v>
+      </c>
+      <c r="W31" t="s">
+        <v>37</v>
+      </c>
+      <c r="X31" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="32" spans="1:43">
+      <c r="A32" s="2">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" t="s">
+        <v>37</v>
+      </c>
+      <c r="I32" t="s">
+        <v>37</v>
+      </c>
+      <c r="J32">
+        <v>24</v>
+      </c>
+      <c r="K32" t="s">
+        <v>37</v>
+      </c>
+      <c r="L32" t="s">
+        <v>37</v>
+      </c>
+      <c r="M32" t="s">
+        <v>37</v>
+      </c>
+      <c r="N32" t="s">
+        <v>37</v>
+      </c>
+      <c r="O32" t="s">
+        <v>37</v>
+      </c>
+      <c r="P32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>37</v>
+      </c>
+      <c r="R32" t="s">
+        <v>37</v>
+      </c>
+      <c r="S32" t="s">
+        <v>37</v>
+      </c>
+      <c r="T32" t="s">
+        <v>37</v>
+      </c>
+      <c r="U32" t="s">
+        <v>37</v>
+      </c>
+      <c r="V32" t="s">
+        <v>37</v>
+      </c>
+      <c r="W32" t="s">
+        <v>37</v>
+      </c>
+      <c r="X32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:43">
+      <c r="A33" s="2">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33">
+        <v>25</v>
+      </c>
+      <c r="D33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33" t="s">
+        <v>37</v>
+      </c>
+      <c r="J33" t="s">
+        <v>37</v>
+      </c>
+      <c r="K33" t="s">
+        <v>37</v>
+      </c>
+      <c r="L33" t="s">
+        <v>37</v>
+      </c>
+      <c r="M33" t="s">
+        <v>37</v>
+      </c>
+      <c r="N33" t="s">
+        <v>37</v>
+      </c>
+      <c r="O33" t="s">
+        <v>37</v>
+      </c>
+      <c r="P33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>37</v>
+      </c>
+      <c r="R33" t="s">
+        <v>37</v>
+      </c>
+      <c r="S33" t="s">
+        <v>37</v>
+      </c>
+      <c r="T33" t="s">
+        <v>37</v>
+      </c>
+      <c r="U33" t="s">
+        <v>37</v>
+      </c>
+      <c r="V33" t="s">
+        <v>37</v>
+      </c>
+      <c r="W33" t="s">
+        <v>37</v>
+      </c>
+      <c r="X33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:43">
+      <c r="A34" s="2">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34">
+        <v>26</v>
+      </c>
+      <c r="G34" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" t="s">
+        <v>37</v>
+      </c>
+      <c r="J34" t="s">
+        <v>37</v>
+      </c>
+      <c r="K34" t="s">
+        <v>37</v>
+      </c>
+      <c r="L34" t="s">
+        <v>37</v>
+      </c>
+      <c r="M34" t="s">
+        <v>37</v>
+      </c>
+      <c r="N34" t="s">
+        <v>37</v>
+      </c>
+      <c r="O34" t="s">
+        <v>37</v>
+      </c>
+      <c r="P34" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S34" t="s">
+        <v>37</v>
+      </c>
+      <c r="T34" t="s">
+        <v>37</v>
+      </c>
+      <c r="U34" t="s">
+        <v>37</v>
+      </c>
+      <c r="V34" t="s">
+        <v>37</v>
+      </c>
+      <c r="W34" t="s">
+        <v>37</v>
+      </c>
+      <c r="X34" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:43">
+      <c r="A35" s="2">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" t="s">
+        <v>37</v>
+      </c>
+      <c r="J35" t="s">
+        <v>37</v>
+      </c>
+      <c r="K35" t="s">
+        <v>37</v>
+      </c>
+      <c r="L35" t="s">
+        <v>37</v>
+      </c>
+      <c r="M35" t="s">
+        <v>37</v>
+      </c>
+      <c r="N35" t="s">
+        <v>37</v>
+      </c>
+      <c r="O35" t="s">
+        <v>37</v>
+      </c>
+      <c r="P35" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>37</v>
+      </c>
+      <c r="R35" t="s">
+        <v>37</v>
+      </c>
+      <c r="S35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V35" t="s">
+        <v>37</v>
+      </c>
+      <c r="W35" t="s">
+        <v>37</v>
+      </c>
+      <c r="X35" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK35" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL35">
+        <v>27</v>
+      </c>
+      <c r="AM35">
+        <v>27</v>
+      </c>
+      <c r="AN35">
+        <v>27</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:43">
+      <c r="A36" s="2">
+        <v>27</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I36" t="s">
+        <v>37</v>
+      </c>
+      <c r="J36" t="s">
+        <v>37</v>
+      </c>
+      <c r="K36" t="s">
+        <v>37</v>
+      </c>
+      <c r="L36" t="s">
+        <v>37</v>
+      </c>
+      <c r="M36" t="s">
+        <v>37</v>
+      </c>
+      <c r="N36" t="s">
+        <v>37</v>
+      </c>
+      <c r="O36" t="s">
+        <v>37</v>
+      </c>
+      <c r="P36" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>37</v>
+      </c>
+      <c r="R36" t="s">
+        <v>37</v>
+      </c>
+      <c r="S36" t="s">
+        <v>37</v>
+      </c>
+      <c r="T36" t="s">
+        <v>37</v>
+      </c>
+      <c r="U36" t="s">
+        <v>37</v>
+      </c>
+      <c r="V36" t="s">
+        <v>37</v>
+      </c>
+      <c r="W36" t="s">
+        <v>37</v>
+      </c>
+      <c r="X36" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:43">
       <c r="A37" t="s">
         <v>31</v>
       </c>

--- a/lexic/transitionsDescription.xlsx
+++ b/lexic/transitionsDescription.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="48">
   <si>
     <t>estado</t>
   </si>
@@ -148,6 +148,18 @@
   </si>
   <si>
     <t>escribe</t>
+  </si>
+  <si>
+    <t>PR04</t>
+  </si>
+  <si>
+    <t>finprincipal</t>
+  </si>
+  <si>
+    <t>PR05</t>
+  </si>
+  <si>
+    <t>si</t>
   </si>
 </sst>
 </file>
@@ -496,10 +508,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:AQ37"/>
+  <dimension ref="A2:AQ70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AP41" sqref="AP41"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="P54" sqref="P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4315,7 +4329,2344 @@
       </c>
     </row>
     <row r="37" spans="1:43">
-      <c r="A37" t="s">
+      <c r="A37" s="2">
+        <v>28</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37" t="s">
+        <v>37</v>
+      </c>
+      <c r="J37">
+        <v>29</v>
+      </c>
+      <c r="K37" t="s">
+        <v>37</v>
+      </c>
+      <c r="L37" t="s">
+        <v>37</v>
+      </c>
+      <c r="M37" t="s">
+        <v>37</v>
+      </c>
+      <c r="N37" t="s">
+        <v>37</v>
+      </c>
+      <c r="O37" t="s">
+        <v>37</v>
+      </c>
+      <c r="P37" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>37</v>
+      </c>
+      <c r="R37" t="s">
+        <v>37</v>
+      </c>
+      <c r="S37" t="s">
+        <v>37</v>
+      </c>
+      <c r="T37" t="s">
+        <v>37</v>
+      </c>
+      <c r="U37" t="s">
+        <v>37</v>
+      </c>
+      <c r="V37" t="s">
+        <v>37</v>
+      </c>
+      <c r="W37" t="s">
+        <v>37</v>
+      </c>
+      <c r="X37" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:43">
+      <c r="A38" s="2">
+        <v>29</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" t="s">
+        <v>37</v>
+      </c>
+      <c r="I38" t="s">
+        <v>37</v>
+      </c>
+      <c r="J38" t="s">
+        <v>37</v>
+      </c>
+      <c r="K38" t="s">
+        <v>37</v>
+      </c>
+      <c r="L38" t="s">
+        <v>37</v>
+      </c>
+      <c r="M38" t="s">
+        <v>37</v>
+      </c>
+      <c r="N38" t="s">
+        <v>37</v>
+      </c>
+      <c r="O38">
+        <v>30</v>
+      </c>
+      <c r="P38" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>37</v>
+      </c>
+      <c r="R38" t="s">
+        <v>37</v>
+      </c>
+      <c r="S38" t="s">
+        <v>37</v>
+      </c>
+      <c r="T38" t="s">
+        <v>37</v>
+      </c>
+      <c r="U38" t="s">
+        <v>37</v>
+      </c>
+      <c r="V38" t="s">
+        <v>37</v>
+      </c>
+      <c r="W38" t="s">
+        <v>37</v>
+      </c>
+      <c r="X38" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:43">
+      <c r="A39" s="2">
+        <v>30</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39" t="s">
+        <v>37</v>
+      </c>
+      <c r="I39" t="s">
+        <v>37</v>
+      </c>
+      <c r="J39" t="s">
+        <v>37</v>
+      </c>
+      <c r="K39" t="s">
+        <v>37</v>
+      </c>
+      <c r="L39" t="s">
+        <v>37</v>
+      </c>
+      <c r="M39" t="s">
+        <v>37</v>
+      </c>
+      <c r="N39" t="s">
+        <v>37</v>
+      </c>
+      <c r="O39" t="s">
+        <v>37</v>
+      </c>
+      <c r="P39" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q39">
+        <v>31</v>
+      </c>
+      <c r="R39" t="s">
+        <v>37</v>
+      </c>
+      <c r="S39" t="s">
+        <v>37</v>
+      </c>
+      <c r="T39" t="s">
+        <v>37</v>
+      </c>
+      <c r="U39" t="s">
+        <v>37</v>
+      </c>
+      <c r="V39" t="s">
+        <v>37</v>
+      </c>
+      <c r="W39" t="s">
+        <v>37</v>
+      </c>
+      <c r="X39" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:43">
+      <c r="A40" s="2">
+        <v>31</v>
+      </c>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G40" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40" t="s">
+        <v>37</v>
+      </c>
+      <c r="I40" t="s">
+        <v>37</v>
+      </c>
+      <c r="J40" t="s">
+        <v>37</v>
+      </c>
+      <c r="K40" t="s">
+        <v>37</v>
+      </c>
+      <c r="L40" t="s">
+        <v>37</v>
+      </c>
+      <c r="M40" t="s">
+        <v>37</v>
+      </c>
+      <c r="N40" t="s">
+        <v>37</v>
+      </c>
+      <c r="O40" t="s">
+        <v>37</v>
+      </c>
+      <c r="P40" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>37</v>
+      </c>
+      <c r="R40" t="s">
+        <v>37</v>
+      </c>
+      <c r="S40">
+        <v>32</v>
+      </c>
+      <c r="T40" t="s">
+        <v>37</v>
+      </c>
+      <c r="U40" t="s">
+        <v>37</v>
+      </c>
+      <c r="V40" t="s">
+        <v>37</v>
+      </c>
+      <c r="W40" t="s">
+        <v>37</v>
+      </c>
+      <c r="X40" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:43">
+      <c r="A41" s="2">
+        <v>32</v>
+      </c>
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" t="s">
+        <v>37</v>
+      </c>
+      <c r="G41" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" t="s">
+        <v>37</v>
+      </c>
+      <c r="I41" t="s">
+        <v>37</v>
+      </c>
+      <c r="J41">
+        <v>33</v>
+      </c>
+      <c r="K41" t="s">
+        <v>37</v>
+      </c>
+      <c r="L41" t="s">
+        <v>37</v>
+      </c>
+      <c r="M41" t="s">
+        <v>37</v>
+      </c>
+      <c r="N41" t="s">
+        <v>37</v>
+      </c>
+      <c r="O41" t="s">
+        <v>37</v>
+      </c>
+      <c r="P41" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>37</v>
+      </c>
+      <c r="R41" t="s">
+        <v>37</v>
+      </c>
+      <c r="S41" t="s">
+        <v>37</v>
+      </c>
+      <c r="T41" t="s">
+        <v>37</v>
+      </c>
+      <c r="U41" t="s">
+        <v>37</v>
+      </c>
+      <c r="V41" t="s">
+        <v>37</v>
+      </c>
+      <c r="W41" t="s">
+        <v>37</v>
+      </c>
+      <c r="X41" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:43">
+      <c r="A42" s="2">
+        <v>33</v>
+      </c>
+      <c r="B42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" t="s">
+        <v>37</v>
+      </c>
+      <c r="G42" t="s">
+        <v>37</v>
+      </c>
+      <c r="H42" t="s">
+        <v>37</v>
+      </c>
+      <c r="I42" t="s">
+        <v>37</v>
+      </c>
+      <c r="J42" t="s">
+        <v>37</v>
+      </c>
+      <c r="K42" t="s">
+        <v>37</v>
+      </c>
+      <c r="L42" t="s">
+        <v>37</v>
+      </c>
+      <c r="M42" t="s">
+        <v>37</v>
+      </c>
+      <c r="N42" t="s">
+        <v>37</v>
+      </c>
+      <c r="O42">
+        <v>34</v>
+      </c>
+      <c r="P42" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>37</v>
+      </c>
+      <c r="R42" t="s">
+        <v>37</v>
+      </c>
+      <c r="S42" t="s">
+        <v>37</v>
+      </c>
+      <c r="T42" t="s">
+        <v>37</v>
+      </c>
+      <c r="U42" t="s">
+        <v>37</v>
+      </c>
+      <c r="V42" t="s">
+        <v>37</v>
+      </c>
+      <c r="W42" t="s">
+        <v>37</v>
+      </c>
+      <c r="X42" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:43">
+      <c r="A43" s="2">
+        <v>34</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43">
+        <v>35</v>
+      </c>
+      <c r="E43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43" t="s">
+        <v>37</v>
+      </c>
+      <c r="G43" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" t="s">
+        <v>37</v>
+      </c>
+      <c r="I43" t="s">
+        <v>37</v>
+      </c>
+      <c r="J43" t="s">
+        <v>37</v>
+      </c>
+      <c r="K43" t="s">
+        <v>37</v>
+      </c>
+      <c r="L43" t="s">
+        <v>37</v>
+      </c>
+      <c r="M43" t="s">
+        <v>37</v>
+      </c>
+      <c r="N43" t="s">
+        <v>37</v>
+      </c>
+      <c r="O43" t="s">
+        <v>37</v>
+      </c>
+      <c r="P43" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>37</v>
+      </c>
+      <c r="R43" t="s">
+        <v>37</v>
+      </c>
+      <c r="S43" t="s">
+        <v>37</v>
+      </c>
+      <c r="T43" t="s">
+        <v>37</v>
+      </c>
+      <c r="U43" t="s">
+        <v>37</v>
+      </c>
+      <c r="V43" t="s">
+        <v>37</v>
+      </c>
+      <c r="W43" t="s">
+        <v>37</v>
+      </c>
+      <c r="X43" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:43">
+      <c r="A44" s="2">
+        <v>35</v>
+      </c>
+      <c r="B44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44" t="s">
+        <v>37</v>
+      </c>
+      <c r="H44" t="s">
+        <v>37</v>
+      </c>
+      <c r="I44" t="s">
+        <v>37</v>
+      </c>
+      <c r="J44">
+        <v>36</v>
+      </c>
+      <c r="K44" t="s">
+        <v>37</v>
+      </c>
+      <c r="L44" t="s">
+        <v>37</v>
+      </c>
+      <c r="M44" t="s">
+        <v>37</v>
+      </c>
+      <c r="N44" t="s">
+        <v>37</v>
+      </c>
+      <c r="O44" t="s">
+        <v>37</v>
+      </c>
+      <c r="P44" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>37</v>
+      </c>
+      <c r="R44" t="s">
+        <v>37</v>
+      </c>
+      <c r="S44" t="s">
+        <v>37</v>
+      </c>
+      <c r="T44" t="s">
+        <v>37</v>
+      </c>
+      <c r="U44" t="s">
+        <v>37</v>
+      </c>
+      <c r="V44" t="s">
+        <v>37</v>
+      </c>
+      <c r="W44" t="s">
+        <v>37</v>
+      </c>
+      <c r="X44" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:43">
+      <c r="A45" s="2">
+        <v>36</v>
+      </c>
+      <c r="B45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45" t="s">
+        <v>37</v>
+      </c>
+      <c r="H45" t="s">
+        <v>37</v>
+      </c>
+      <c r="I45" t="s">
+        <v>37</v>
+      </c>
+      <c r="J45" t="s">
+        <v>37</v>
+      </c>
+      <c r="K45" t="s">
+        <v>37</v>
+      </c>
+      <c r="L45" t="s">
+        <v>37</v>
+      </c>
+      <c r="M45" t="s">
+        <v>37</v>
+      </c>
+      <c r="N45" t="s">
+        <v>37</v>
+      </c>
+      <c r="O45" t="s">
+        <v>37</v>
+      </c>
+      <c r="P45" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q45">
+        <v>37</v>
+      </c>
+      <c r="R45" t="s">
+        <v>37</v>
+      </c>
+      <c r="S45" t="s">
+        <v>37</v>
+      </c>
+      <c r="T45" t="s">
+        <v>37</v>
+      </c>
+      <c r="U45" t="s">
+        <v>37</v>
+      </c>
+      <c r="V45" t="s">
+        <v>37</v>
+      </c>
+      <c r="W45" t="s">
+        <v>37</v>
+      </c>
+      <c r="X45" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO45" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:43">
+      <c r="A46" s="2">
+        <v>37</v>
+      </c>
+      <c r="B46">
+        <v>38</v>
+      </c>
+      <c r="C46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46" t="s">
+        <v>37</v>
+      </c>
+      <c r="G46" t="s">
+        <v>37</v>
+      </c>
+      <c r="H46" t="s">
+        <v>37</v>
+      </c>
+      <c r="I46" t="s">
+        <v>37</v>
+      </c>
+      <c r="J46" t="s">
+        <v>37</v>
+      </c>
+      <c r="K46" t="s">
+        <v>37</v>
+      </c>
+      <c r="L46" t="s">
+        <v>37</v>
+      </c>
+      <c r="M46" t="s">
+        <v>37</v>
+      </c>
+      <c r="N46" t="s">
+        <v>37</v>
+      </c>
+      <c r="O46" t="s">
+        <v>37</v>
+      </c>
+      <c r="P46" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>37</v>
+      </c>
+      <c r="R46" t="s">
+        <v>37</v>
+      </c>
+      <c r="S46" t="s">
+        <v>37</v>
+      </c>
+      <c r="T46" t="s">
+        <v>37</v>
+      </c>
+      <c r="U46" t="s">
+        <v>37</v>
+      </c>
+      <c r="V46" t="s">
+        <v>37</v>
+      </c>
+      <c r="W46" t="s">
+        <v>37</v>
+      </c>
+      <c r="X46" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:43">
+      <c r="A47" s="2">
+        <v>38</v>
+      </c>
+      <c r="B47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47" t="s">
+        <v>37</v>
+      </c>
+      <c r="G47" t="s">
+        <v>37</v>
+      </c>
+      <c r="H47" t="s">
+        <v>37</v>
+      </c>
+      <c r="I47" t="s">
+        <v>37</v>
+      </c>
+      <c r="J47" t="s">
+        <v>37</v>
+      </c>
+      <c r="K47" t="s">
+        <v>37</v>
+      </c>
+      <c r="L47" t="s">
+        <v>37</v>
+      </c>
+      <c r="M47">
+        <v>39</v>
+      </c>
+      <c r="N47" t="s">
+        <v>37</v>
+      </c>
+      <c r="O47" t="s">
+        <v>37</v>
+      </c>
+      <c r="P47" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>37</v>
+      </c>
+      <c r="R47" t="s">
+        <v>37</v>
+      </c>
+      <c r="S47" t="s">
+        <v>37</v>
+      </c>
+      <c r="T47" t="s">
+        <v>37</v>
+      </c>
+      <c r="U47" t="s">
+        <v>37</v>
+      </c>
+      <c r="V47" t="s">
+        <v>37</v>
+      </c>
+      <c r="W47" t="s">
+        <v>37</v>
+      </c>
+      <c r="X47" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:43">
+      <c r="A48" s="2">
+        <v>39</v>
+      </c>
+      <c r="B48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" t="s">
+        <v>37</v>
+      </c>
+      <c r="F48" t="s">
+        <v>37</v>
+      </c>
+      <c r="G48" t="s">
+        <v>37</v>
+      </c>
+      <c r="H48" t="s">
+        <v>37</v>
+      </c>
+      <c r="I48" t="s">
+        <v>37</v>
+      </c>
+      <c r="J48" t="s">
+        <v>37</v>
+      </c>
+      <c r="K48" t="s">
+        <v>37</v>
+      </c>
+      <c r="L48" t="s">
+        <v>37</v>
+      </c>
+      <c r="M48" t="s">
+        <v>37</v>
+      </c>
+      <c r="N48" t="s">
+        <v>37</v>
+      </c>
+      <c r="O48" t="s">
+        <v>37</v>
+      </c>
+      <c r="P48" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>37</v>
+      </c>
+      <c r="R48" t="s">
+        <v>37</v>
+      </c>
+      <c r="S48" t="s">
+        <v>37</v>
+      </c>
+      <c r="T48" t="s">
+        <v>37</v>
+      </c>
+      <c r="U48" t="s">
+        <v>37</v>
+      </c>
+      <c r="V48" t="s">
+        <v>37</v>
+      </c>
+      <c r="W48" t="s">
+        <v>37</v>
+      </c>
+      <c r="X48" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK48" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL48">
+        <v>40</v>
+      </c>
+      <c r="AM48">
+        <v>40</v>
+      </c>
+      <c r="AN48">
+        <v>40</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:43">
+      <c r="A49" s="2">
+        <v>40</v>
+      </c>
+      <c r="B49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" t="s">
+        <v>37</v>
+      </c>
+      <c r="G49" t="s">
+        <v>37</v>
+      </c>
+      <c r="H49" t="s">
+        <v>37</v>
+      </c>
+      <c r="I49" t="s">
+        <v>37</v>
+      </c>
+      <c r="J49" t="s">
+        <v>37</v>
+      </c>
+      <c r="K49" t="s">
+        <v>37</v>
+      </c>
+      <c r="L49" t="s">
+        <v>37</v>
+      </c>
+      <c r="M49" t="s">
+        <v>37</v>
+      </c>
+      <c r="N49" t="s">
+        <v>37</v>
+      </c>
+      <c r="O49" t="s">
+        <v>37</v>
+      </c>
+      <c r="P49" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>37</v>
+      </c>
+      <c r="R49" t="s">
+        <v>37</v>
+      </c>
+      <c r="S49" t="s">
+        <v>37</v>
+      </c>
+      <c r="T49" t="s">
+        <v>37</v>
+      </c>
+      <c r="U49" t="s">
+        <v>37</v>
+      </c>
+      <c r="V49" t="s">
+        <v>37</v>
+      </c>
+      <c r="W49" t="s">
+        <v>37</v>
+      </c>
+      <c r="X49" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK49" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP49" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:43">
+      <c r="A50" s="2">
+        <v>41</v>
+      </c>
+      <c r="B50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" t="s">
+        <v>37</v>
+      </c>
+      <c r="F50" t="s">
+        <v>37</v>
+      </c>
+      <c r="G50" t="s">
+        <v>37</v>
+      </c>
+      <c r="H50" t="s">
+        <v>37</v>
+      </c>
+      <c r="I50" t="s">
+        <v>37</v>
+      </c>
+      <c r="J50">
+        <v>42</v>
+      </c>
+      <c r="K50" t="s">
+        <v>37</v>
+      </c>
+      <c r="L50" t="s">
+        <v>37</v>
+      </c>
+      <c r="M50" t="s">
+        <v>37</v>
+      </c>
+      <c r="N50" t="s">
+        <v>37</v>
+      </c>
+      <c r="O50" t="s">
+        <v>37</v>
+      </c>
+      <c r="P50" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>37</v>
+      </c>
+      <c r="R50" t="s">
+        <v>37</v>
+      </c>
+      <c r="S50" t="s">
+        <v>37</v>
+      </c>
+      <c r="T50" t="s">
+        <v>37</v>
+      </c>
+      <c r="U50" t="s">
+        <v>37</v>
+      </c>
+      <c r="V50" t="s">
+        <v>37</v>
+      </c>
+      <c r="W50" t="s">
+        <v>37</v>
+      </c>
+      <c r="X50" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:43">
+      <c r="A51" s="2">
+        <v>42</v>
+      </c>
+      <c r="B51" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" t="s">
+        <v>37</v>
+      </c>
+      <c r="F51" t="s">
+        <v>37</v>
+      </c>
+      <c r="G51" t="s">
+        <v>37</v>
+      </c>
+      <c r="H51" t="s">
+        <v>37</v>
+      </c>
+      <c r="I51" t="s">
+        <v>37</v>
+      </c>
+      <c r="J51" t="s">
+        <v>37</v>
+      </c>
+      <c r="K51" t="s">
+        <v>37</v>
+      </c>
+      <c r="L51" t="s">
+        <v>37</v>
+      </c>
+      <c r="M51" t="s">
+        <v>37</v>
+      </c>
+      <c r="N51" t="s">
+        <v>37</v>
+      </c>
+      <c r="O51">
+        <v>44</v>
+      </c>
+      <c r="P51" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>37</v>
+      </c>
+      <c r="R51" t="s">
+        <v>37</v>
+      </c>
+      <c r="S51" t="s">
+        <v>37</v>
+      </c>
+      <c r="T51" t="s">
+        <v>37</v>
+      </c>
+      <c r="U51" t="s">
+        <v>37</v>
+      </c>
+      <c r="V51" t="s">
+        <v>37</v>
+      </c>
+      <c r="W51" t="s">
+        <v>37</v>
+      </c>
+      <c r="X51" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK51" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL51">
+        <v>43</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN51">
+        <v>43</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:43">
+      <c r="A52" s="2">
+        <v>43</v>
+      </c>
+      <c r="B52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52" t="s">
+        <v>37</v>
+      </c>
+      <c r="F52" t="s">
+        <v>37</v>
+      </c>
+      <c r="G52" t="s">
+        <v>37</v>
+      </c>
+      <c r="H52" t="s">
+        <v>37</v>
+      </c>
+      <c r="I52" t="s">
+        <v>37</v>
+      </c>
+      <c r="J52" t="s">
+        <v>37</v>
+      </c>
+      <c r="K52" t="s">
+        <v>37</v>
+      </c>
+      <c r="L52" t="s">
+        <v>37</v>
+      </c>
+      <c r="M52" t="s">
+        <v>37</v>
+      </c>
+      <c r="N52" t="s">
+        <v>37</v>
+      </c>
+      <c r="O52" t="s">
+        <v>37</v>
+      </c>
+      <c r="P52" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>37</v>
+      </c>
+      <c r="R52" t="s">
+        <v>37</v>
+      </c>
+      <c r="S52" t="s">
+        <v>37</v>
+      </c>
+      <c r="T52" t="s">
+        <v>37</v>
+      </c>
+      <c r="U52" t="s">
+        <v>37</v>
+      </c>
+      <c r="V52" t="s">
+        <v>37</v>
+      </c>
+      <c r="W52" t="s">
+        <v>37</v>
+      </c>
+      <c r="X52" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK52" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP52" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:43">
+      <c r="A53" s="2">
+        <v>44</v>
+      </c>
+      <c r="B53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" t="s">
+        <v>37</v>
+      </c>
+      <c r="F53" t="s">
+        <v>37</v>
+      </c>
+      <c r="G53" t="s">
+        <v>37</v>
+      </c>
+      <c r="H53" t="s">
+        <v>37</v>
+      </c>
+      <c r="I53" t="s">
+        <v>37</v>
+      </c>
+      <c r="J53" t="s">
+        <v>37</v>
+      </c>
+      <c r="K53" t="s">
+        <v>37</v>
+      </c>
+      <c r="L53" t="s">
+        <v>37</v>
+      </c>
+      <c r="M53" t="s">
+        <v>37</v>
+      </c>
+      <c r="N53" t="s">
+        <v>37</v>
+      </c>
+      <c r="O53" t="s">
+        <v>37</v>
+      </c>
+      <c r="P53">
+        <v>45</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>37</v>
+      </c>
+      <c r="R53" t="s">
+        <v>37</v>
+      </c>
+      <c r="S53" t="s">
+        <v>37</v>
+      </c>
+      <c r="T53" t="s">
+        <v>37</v>
+      </c>
+      <c r="U53" t="s">
+        <v>37</v>
+      </c>
+      <c r="V53" t="s">
+        <v>37</v>
+      </c>
+      <c r="W53" t="s">
+        <v>37</v>
+      </c>
+      <c r="X53" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK53" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN53" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO53" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:43">
+      <c r="A54" s="2">
+        <v>45</v>
+      </c>
+      <c r="B54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" t="s">
+        <v>37</v>
+      </c>
+      <c r="F54" t="s">
+        <v>37</v>
+      </c>
+      <c r="G54" t="s">
+        <v>37</v>
+      </c>
+      <c r="H54" t="s">
+        <v>37</v>
+      </c>
+      <c r="I54" t="s">
+        <v>37</v>
+      </c>
+      <c r="J54" t="s">
+        <v>37</v>
+      </c>
+      <c r="K54" t="s">
+        <v>37</v>
+      </c>
+      <c r="L54" t="s">
+        <v>37</v>
+      </c>
+      <c r="M54" t="s">
+        <v>37</v>
+      </c>
+      <c r="N54" t="s">
+        <v>37</v>
+      </c>
+      <c r="O54" t="s">
+        <v>37</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>37</v>
+      </c>
+      <c r="R54" t="s">
+        <v>37</v>
+      </c>
+      <c r="S54" t="s">
+        <v>37</v>
+      </c>
+      <c r="T54" t="s">
+        <v>37</v>
+      </c>
+      <c r="U54" t="s">
+        <v>37</v>
+      </c>
+      <c r="V54" t="s">
+        <v>37</v>
+      </c>
+      <c r="W54" t="s">
+        <v>37</v>
+      </c>
+      <c r="X54" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK54" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL54">
+        <v>46</v>
+      </c>
+      <c r="AM54">
+        <v>46</v>
+      </c>
+      <c r="AN54">
+        <v>46</v>
+      </c>
+      <c r="AO54" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:43">
+      <c r="A55" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:43">
+      <c r="A56" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:43">
+      <c r="A57" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:43">
+      <c r="A58" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:43">
+      <c r="A59" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:43">
+      <c r="A60" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:43">
+      <c r="A61" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:43">
+      <c r="A62" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:43">
+      <c r="A63" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:43">
+      <c r="A64" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
         <v>31</v>
       </c>
     </row>

--- a/lexic/transitionsDescription.xlsx
+++ b/lexic/transitionsDescription.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4792" uniqueCount="73">
   <si>
     <t>estado</t>
   </si>
@@ -160,6 +160,81 @@
   </si>
   <si>
     <t>si</t>
+  </si>
+  <si>
+    <t>sino</t>
+  </si>
+  <si>
+    <t>finsi</t>
+  </si>
+  <si>
+    <t>evalua</t>
+  </si>
+  <si>
+    <t>PR06</t>
+  </si>
+  <si>
+    <t>PR07</t>
+  </si>
+  <si>
+    <t>PR08</t>
+  </si>
+  <si>
+    <t>caso</t>
+  </si>
+  <si>
+    <t>PR09</t>
+  </si>
+  <si>
+    <t>ninguno</t>
+  </si>
+  <si>
+    <t>PR10</t>
+  </si>
+  <si>
+    <t>finevalua</t>
+  </si>
+  <si>
+    <t>PR11</t>
+  </si>
+  <si>
+    <t>PR12</t>
+  </si>
+  <si>
+    <t>desde</t>
+  </si>
+  <si>
+    <t>PR13</t>
+  </si>
+  <si>
+    <t>PR14</t>
+  </si>
+  <si>
+    <t>intervalo</t>
+  </si>
+  <si>
+    <t>PR15</t>
+  </si>
+  <si>
+    <t>findesde</t>
+  </si>
+  <si>
+    <t>PR16</t>
+  </si>
+  <si>
+    <t>mientras</t>
+  </si>
+  <si>
+    <t>PR17</t>
+  </si>
+  <si>
+    <t>finmientras</t>
+  </si>
+  <si>
+    <t>PR18</t>
+  </si>
+  <si>
+    <t>haz</t>
   </si>
 </sst>
 </file>
@@ -508,17 +583,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:AQ70"/>
+  <dimension ref="A2:AQ143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="P54" sqref="P54"/>
+      <selection pane="bottomLeft" activeCell="AL129" sqref="AL129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="47" width="4" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" customWidth="1"/>
+    <col min="3" max="5" width="4" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" customWidth="1"/>
+    <col min="7" max="9" width="4" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="13" width="4" customWidth="1"/>
+    <col min="14" max="15" width="4.5703125" customWidth="1"/>
+    <col min="16" max="18" width="4" customWidth="1"/>
+    <col min="19" max="19" width="4.42578125" customWidth="1"/>
+    <col min="20" max="20" width="4.140625" customWidth="1"/>
+    <col min="21" max="21" width="4.42578125" customWidth="1"/>
+    <col min="22" max="26" width="4" customWidth="1"/>
+    <col min="27" max="27" width="4.140625" customWidth="1"/>
+    <col min="28" max="37" width="4" customWidth="1"/>
+    <col min="38" max="38" width="4.85546875" customWidth="1"/>
+    <col min="39" max="39" width="4.140625" customWidth="1"/>
+    <col min="40" max="40" width="4.7109375" customWidth="1"/>
+    <col min="41" max="41" width="4" customWidth="1"/>
+    <col min="42" max="42" width="7" customWidth="1"/>
+    <col min="43" max="47" width="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:41">
@@ -820,11 +914,11 @@
       <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
+      <c r="D9">
+        <v>56</v>
+      </c>
+      <c r="E9">
+        <v>76</v>
       </c>
       <c r="F9">
         <v>20</v>
@@ -835,8 +929,8 @@
       <c r="H9" t="s">
         <v>37</v>
       </c>
-      <c r="I9" t="s">
-        <v>37</v>
+      <c r="I9">
+        <v>82</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -850,11 +944,11 @@
       <c r="M9" t="s">
         <v>37</v>
       </c>
-      <c r="N9" t="s">
-        <v>37</v>
-      </c>
-      <c r="O9" t="s">
-        <v>37</v>
+      <c r="N9">
+        <v>102</v>
+      </c>
+      <c r="O9">
+        <v>61</v>
       </c>
       <c r="P9" t="s">
         <v>37</v>
@@ -945,11 +1039,11 @@
       <c r="C10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" t="s">
-        <v>37</v>
+      <c r="D10">
+        <v>56</v>
+      </c>
+      <c r="E10">
+        <v>76</v>
       </c>
       <c r="F10">
         <v>20</v>
@@ -960,8 +1054,8 @@
       <c r="H10" t="s">
         <v>37</v>
       </c>
-      <c r="I10" t="s">
-        <v>37</v>
+      <c r="I10">
+        <v>82</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -975,11 +1069,11 @@
       <c r="M10" t="s">
         <v>37</v>
       </c>
-      <c r="N10" t="s">
-        <v>37</v>
-      </c>
-      <c r="O10" t="s">
-        <v>37</v>
+      <c r="N10">
+        <v>102</v>
+      </c>
+      <c r="O10">
+        <v>61</v>
       </c>
       <c r="P10" t="s">
         <v>37</v>
@@ -1246,8 +1340,8 @@
       <c r="T12" t="s">
         <v>37</v>
       </c>
-      <c r="U12" t="s">
-        <v>37</v>
+      <c r="U12">
+        <v>88</v>
       </c>
       <c r="V12" t="s">
         <v>37</v>
@@ -3389,8 +3483,8 @@
       <c r="V29" t="s">
         <v>37</v>
       </c>
-      <c r="W29" t="s">
-        <v>37</v>
+      <c r="W29">
+        <v>50</v>
       </c>
       <c r="X29" t="s">
         <v>37</v>
@@ -4591,11 +4685,11 @@
       <c r="D39" t="s">
         <v>37</v>
       </c>
-      <c r="E39" t="s">
-        <v>37</v>
-      </c>
-      <c r="F39" t="s">
-        <v>37</v>
+      <c r="E39">
+        <v>96</v>
+      </c>
+      <c r="F39">
+        <v>69</v>
       </c>
       <c r="G39" t="s">
         <v>37</v>
@@ -4618,8 +4712,8 @@
       <c r="M39" t="s">
         <v>37</v>
       </c>
-      <c r="N39" t="s">
-        <v>37</v>
+      <c r="N39">
+        <v>111</v>
       </c>
       <c r="O39" t="s">
         <v>37</v>
@@ -4636,8 +4730,8 @@
       <c r="S39" t="s">
         <v>37</v>
       </c>
-      <c r="T39" t="s">
-        <v>37</v>
+      <c r="T39">
+        <v>47</v>
       </c>
       <c r="U39" t="s">
         <v>37</v>
@@ -6594,79 +6688,9592 @@
       <c r="A55" s="2">
         <v>46</v>
       </c>
+      <c r="B55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55" t="s">
+        <v>37</v>
+      </c>
+      <c r="F55" t="s">
+        <v>37</v>
+      </c>
+      <c r="G55" t="s">
+        <v>37</v>
+      </c>
+      <c r="H55" t="s">
+        <v>37</v>
+      </c>
+      <c r="I55" t="s">
+        <v>37</v>
+      </c>
+      <c r="J55" t="s">
+        <v>37</v>
+      </c>
+      <c r="K55" t="s">
+        <v>37</v>
+      </c>
+      <c r="L55" t="s">
+        <v>37</v>
+      </c>
+      <c r="M55" t="s">
+        <v>37</v>
+      </c>
+      <c r="N55" t="s">
+        <v>37</v>
+      </c>
+      <c r="O55" t="s">
+        <v>37</v>
+      </c>
+      <c r="P55" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>37</v>
+      </c>
+      <c r="R55" t="s">
+        <v>37</v>
+      </c>
+      <c r="S55" t="s">
+        <v>37</v>
+      </c>
+      <c r="T55" t="s">
+        <v>37</v>
+      </c>
+      <c r="U55" t="s">
+        <v>37</v>
+      </c>
+      <c r="V55" t="s">
+        <v>37</v>
+      </c>
+      <c r="W55" t="s">
+        <v>37</v>
+      </c>
+      <c r="X55" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ55" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK55" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO55" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP55" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ55" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="56" spans="1:43">
       <c r="A56" s="2">
         <v>47</v>
       </c>
+      <c r="B56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56" t="s">
+        <v>37</v>
+      </c>
+      <c r="F56" t="s">
+        <v>37</v>
+      </c>
+      <c r="G56" t="s">
+        <v>37</v>
+      </c>
+      <c r="H56" t="s">
+        <v>37</v>
+      </c>
+      <c r="I56" t="s">
+        <v>37</v>
+      </c>
+      <c r="J56">
+        <v>48</v>
+      </c>
+      <c r="K56" t="s">
+        <v>37</v>
+      </c>
+      <c r="L56" t="s">
+        <v>37</v>
+      </c>
+      <c r="M56" t="s">
+        <v>37</v>
+      </c>
+      <c r="N56" t="s">
+        <v>37</v>
+      </c>
+      <c r="O56" t="s">
+        <v>37</v>
+      </c>
+      <c r="P56" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>37</v>
+      </c>
+      <c r="R56" t="s">
+        <v>37</v>
+      </c>
+      <c r="S56" t="s">
+        <v>37</v>
+      </c>
+      <c r="T56" t="s">
+        <v>37</v>
+      </c>
+      <c r="U56" t="s">
+        <v>37</v>
+      </c>
+      <c r="V56" t="s">
+        <v>37</v>
+      </c>
+      <c r="W56" t="s">
+        <v>37</v>
+      </c>
+      <c r="X56" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ56" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK56" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN56" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO56" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="57" spans="1:43">
       <c r="A57" s="2">
         <v>48</v>
       </c>
+      <c r="B57" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" t="s">
+        <v>37</v>
+      </c>
+      <c r="F57" t="s">
+        <v>37</v>
+      </c>
+      <c r="G57" t="s">
+        <v>37</v>
+      </c>
+      <c r="H57" t="s">
+        <v>37</v>
+      </c>
+      <c r="I57" t="s">
+        <v>37</v>
+      </c>
+      <c r="J57" t="s">
+        <v>37</v>
+      </c>
+      <c r="K57" t="s">
+        <v>37</v>
+      </c>
+      <c r="L57" t="s">
+        <v>37</v>
+      </c>
+      <c r="M57" t="s">
+        <v>37</v>
+      </c>
+      <c r="N57" t="s">
+        <v>37</v>
+      </c>
+      <c r="O57" t="s">
+        <v>37</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>37</v>
+      </c>
+      <c r="R57" t="s">
+        <v>37</v>
+      </c>
+      <c r="S57" t="s">
+        <v>37</v>
+      </c>
+      <c r="T57" t="s">
+        <v>37</v>
+      </c>
+      <c r="U57" t="s">
+        <v>37</v>
+      </c>
+      <c r="V57" t="s">
+        <v>37</v>
+      </c>
+      <c r="W57" t="s">
+        <v>37</v>
+      </c>
+      <c r="X57" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ57" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK57" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL57">
+        <v>49</v>
+      </c>
+      <c r="AM57">
+        <v>49</v>
+      </c>
+      <c r="AN57">
+        <v>49</v>
+      </c>
+      <c r="AO57" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="58" spans="1:43">
       <c r="A58" s="2">
         <v>49</v>
       </c>
+      <c r="B58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" t="s">
+        <v>37</v>
+      </c>
+      <c r="F58" t="s">
+        <v>37</v>
+      </c>
+      <c r="G58" t="s">
+        <v>37</v>
+      </c>
+      <c r="H58" t="s">
+        <v>37</v>
+      </c>
+      <c r="I58" t="s">
+        <v>37</v>
+      </c>
+      <c r="J58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K58" t="s">
+        <v>37</v>
+      </c>
+      <c r="L58" t="s">
+        <v>37</v>
+      </c>
+      <c r="M58" t="s">
+        <v>37</v>
+      </c>
+      <c r="N58" t="s">
+        <v>37</v>
+      </c>
+      <c r="O58" t="s">
+        <v>37</v>
+      </c>
+      <c r="P58" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>37</v>
+      </c>
+      <c r="R58" t="s">
+        <v>37</v>
+      </c>
+      <c r="S58" t="s">
+        <v>37</v>
+      </c>
+      <c r="T58" t="s">
+        <v>37</v>
+      </c>
+      <c r="U58" t="s">
+        <v>37</v>
+      </c>
+      <c r="V58" t="s">
+        <v>37</v>
+      </c>
+      <c r="W58" t="s">
+        <v>37</v>
+      </c>
+      <c r="X58" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ58" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK58" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN58" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO58" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP58" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ58" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="59" spans="1:43">
       <c r="A59" s="2">
         <v>50</v>
       </c>
+      <c r="B59">
+        <v>51</v>
+      </c>
+      <c r="C59" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" t="s">
+        <v>37</v>
+      </c>
+      <c r="F59" t="s">
+        <v>37</v>
+      </c>
+      <c r="G59" t="s">
+        <v>37</v>
+      </c>
+      <c r="H59" t="s">
+        <v>37</v>
+      </c>
+      <c r="I59" t="s">
+        <v>37</v>
+      </c>
+      <c r="J59" t="s">
+        <v>37</v>
+      </c>
+      <c r="K59" t="s">
+        <v>37</v>
+      </c>
+      <c r="L59" t="s">
+        <v>37</v>
+      </c>
+      <c r="M59" t="s">
+        <v>37</v>
+      </c>
+      <c r="N59" t="s">
+        <v>37</v>
+      </c>
+      <c r="O59" t="s">
+        <v>37</v>
+      </c>
+      <c r="P59" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>37</v>
+      </c>
+      <c r="R59" t="s">
+        <v>37</v>
+      </c>
+      <c r="S59" t="s">
+        <v>37</v>
+      </c>
+      <c r="T59" t="s">
+        <v>37</v>
+      </c>
+      <c r="U59" t="s">
+        <v>37</v>
+      </c>
+      <c r="V59" t="s">
+        <v>37</v>
+      </c>
+      <c r="W59" t="s">
+        <v>37</v>
+      </c>
+      <c r="X59" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ59" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK59" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM59" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN59" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO59" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="60" spans="1:43">
       <c r="A60" s="2">
         <v>51</v>
       </c>
+      <c r="B60" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" t="s">
+        <v>37</v>
+      </c>
+      <c r="F60" t="s">
+        <v>37</v>
+      </c>
+      <c r="G60" t="s">
+        <v>37</v>
+      </c>
+      <c r="H60" t="s">
+        <v>37</v>
+      </c>
+      <c r="I60" t="s">
+        <v>37</v>
+      </c>
+      <c r="J60" t="s">
+        <v>37</v>
+      </c>
+      <c r="K60" t="s">
+        <v>37</v>
+      </c>
+      <c r="L60" t="s">
+        <v>37</v>
+      </c>
+      <c r="M60">
+        <v>52</v>
+      </c>
+      <c r="N60" t="s">
+        <v>37</v>
+      </c>
+      <c r="O60" t="s">
+        <v>37</v>
+      </c>
+      <c r="P60" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>37</v>
+      </c>
+      <c r="R60" t="s">
+        <v>37</v>
+      </c>
+      <c r="S60" t="s">
+        <v>37</v>
+      </c>
+      <c r="T60" t="s">
+        <v>37</v>
+      </c>
+      <c r="U60" t="s">
+        <v>37</v>
+      </c>
+      <c r="V60" t="s">
+        <v>37</v>
+      </c>
+      <c r="W60" t="s">
+        <v>37</v>
+      </c>
+      <c r="X60" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ60" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK60" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN60" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO60" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="61" spans="1:43">
       <c r="A61" s="2">
         <v>52</v>
       </c>
+      <c r="B61" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" t="s">
+        <v>37</v>
+      </c>
+      <c r="F61" t="s">
+        <v>37</v>
+      </c>
+      <c r="G61" t="s">
+        <v>37</v>
+      </c>
+      <c r="H61" t="s">
+        <v>37</v>
+      </c>
+      <c r="I61" t="s">
+        <v>37</v>
+      </c>
+      <c r="J61" t="s">
+        <v>37</v>
+      </c>
+      <c r="K61" t="s">
+        <v>37</v>
+      </c>
+      <c r="L61" t="s">
+        <v>37</v>
+      </c>
+      <c r="M61" t="s">
+        <v>37</v>
+      </c>
+      <c r="N61" t="s">
+        <v>37</v>
+      </c>
+      <c r="O61" t="s">
+        <v>37</v>
+      </c>
+      <c r="P61" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>37</v>
+      </c>
+      <c r="R61" t="s">
+        <v>37</v>
+      </c>
+      <c r="S61" t="s">
+        <v>37</v>
+      </c>
+      <c r="T61" t="s">
+        <v>37</v>
+      </c>
+      <c r="U61" t="s">
+        <v>37</v>
+      </c>
+      <c r="V61">
+        <v>53</v>
+      </c>
+      <c r="W61" t="s">
+        <v>37</v>
+      </c>
+      <c r="X61" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ61" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK61" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM61" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN61" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO61" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="62" spans="1:43">
       <c r="A62" s="2">
         <v>53</v>
       </c>
+      <c r="B62">
+        <v>54</v>
+      </c>
+      <c r="C62" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" t="s">
+        <v>37</v>
+      </c>
+      <c r="E62" t="s">
+        <v>37</v>
+      </c>
+      <c r="F62" t="s">
+        <v>37</v>
+      </c>
+      <c r="G62" t="s">
+        <v>37</v>
+      </c>
+      <c r="H62" t="s">
+        <v>37</v>
+      </c>
+      <c r="I62" t="s">
+        <v>37</v>
+      </c>
+      <c r="J62" t="s">
+        <v>37</v>
+      </c>
+      <c r="K62" t="s">
+        <v>37</v>
+      </c>
+      <c r="L62" t="s">
+        <v>37</v>
+      </c>
+      <c r="M62" t="s">
+        <v>37</v>
+      </c>
+      <c r="N62" t="s">
+        <v>37</v>
+      </c>
+      <c r="O62" t="s">
+        <v>37</v>
+      </c>
+      <c r="P62" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>37</v>
+      </c>
+      <c r="R62" t="s">
+        <v>37</v>
+      </c>
+      <c r="S62" t="s">
+        <v>37</v>
+      </c>
+      <c r="T62" t="s">
+        <v>37</v>
+      </c>
+      <c r="U62" t="s">
+        <v>37</v>
+      </c>
+      <c r="V62" t="s">
+        <v>37</v>
+      </c>
+      <c r="W62" t="s">
+        <v>37</v>
+      </c>
+      <c r="X62" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ62" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK62" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM62" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN62" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO62" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="63" spans="1:43">
       <c r="A63" s="2">
         <v>54</v>
       </c>
+      <c r="B63" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" t="s">
+        <v>37</v>
+      </c>
+      <c r="E63" t="s">
+        <v>37</v>
+      </c>
+      <c r="F63" t="s">
+        <v>37</v>
+      </c>
+      <c r="G63" t="s">
+        <v>37</v>
+      </c>
+      <c r="H63" t="s">
+        <v>37</v>
+      </c>
+      <c r="I63" t="s">
+        <v>37</v>
+      </c>
+      <c r="J63" t="s">
+        <v>37</v>
+      </c>
+      <c r="K63" t="s">
+        <v>37</v>
+      </c>
+      <c r="L63" t="s">
+        <v>37</v>
+      </c>
+      <c r="M63" t="s">
+        <v>37</v>
+      </c>
+      <c r="N63" t="s">
+        <v>37</v>
+      </c>
+      <c r="O63" t="s">
+        <v>37</v>
+      </c>
+      <c r="P63" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>37</v>
+      </c>
+      <c r="R63" t="s">
+        <v>37</v>
+      </c>
+      <c r="S63" t="s">
+        <v>37</v>
+      </c>
+      <c r="T63" t="s">
+        <v>37</v>
+      </c>
+      <c r="U63" t="s">
+        <v>37</v>
+      </c>
+      <c r="V63" t="s">
+        <v>37</v>
+      </c>
+      <c r="W63" t="s">
+        <v>37</v>
+      </c>
+      <c r="X63" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ63" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK63" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL63">
+        <v>55</v>
+      </c>
+      <c r="AM63" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN63">
+        <v>55</v>
+      </c>
+      <c r="AO63" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="64" spans="1:43">
       <c r="A64" s="2">
         <v>55</v>
       </c>
+      <c r="B64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" t="s">
+        <v>37</v>
+      </c>
+      <c r="E64" t="s">
+        <v>37</v>
+      </c>
+      <c r="F64" t="s">
+        <v>37</v>
+      </c>
+      <c r="G64" t="s">
+        <v>37</v>
+      </c>
+      <c r="H64" t="s">
+        <v>37</v>
+      </c>
+      <c r="I64" t="s">
+        <v>37</v>
+      </c>
+      <c r="J64" t="s">
+        <v>37</v>
+      </c>
+      <c r="K64" t="s">
+        <v>37</v>
+      </c>
+      <c r="L64" t="s">
+        <v>37</v>
+      </c>
+      <c r="M64" t="s">
+        <v>37</v>
+      </c>
+      <c r="N64" t="s">
+        <v>37</v>
+      </c>
+      <c r="O64" t="s">
+        <v>37</v>
+      </c>
+      <c r="P64" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>37</v>
+      </c>
+      <c r="R64" t="s">
+        <v>37</v>
+      </c>
+      <c r="S64" t="s">
+        <v>37</v>
+      </c>
+      <c r="T64" t="s">
+        <v>37</v>
+      </c>
+      <c r="U64" t="s">
+        <v>37</v>
+      </c>
+      <c r="V64" t="s">
+        <v>37</v>
+      </c>
+      <c r="W64" t="s">
+        <v>37</v>
+      </c>
+      <c r="X64" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP64" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ64" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:43">
       <c r="A65" s="2">
         <v>56</v>
       </c>
+      <c r="B65">
+        <v>57</v>
+      </c>
+      <c r="C65" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" t="s">
+        <v>37</v>
+      </c>
+      <c r="F65" t="s">
+        <v>37</v>
+      </c>
+      <c r="G65" t="s">
+        <v>37</v>
+      </c>
+      <c r="H65" t="s">
+        <v>37</v>
+      </c>
+      <c r="I65" t="s">
+        <v>37</v>
+      </c>
+      <c r="J65" t="s">
+        <v>37</v>
+      </c>
+      <c r="K65" t="s">
+        <v>37</v>
+      </c>
+      <c r="L65" t="s">
+        <v>37</v>
+      </c>
+      <c r="M65" t="s">
+        <v>37</v>
+      </c>
+      <c r="N65" t="s">
+        <v>37</v>
+      </c>
+      <c r="O65" t="s">
+        <v>37</v>
+      </c>
+      <c r="P65" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>37</v>
+      </c>
+      <c r="R65" t="s">
+        <v>37</v>
+      </c>
+      <c r="S65" t="s">
+        <v>37</v>
+      </c>
+      <c r="T65" t="s">
+        <v>37</v>
+      </c>
+      <c r="U65" t="s">
+        <v>37</v>
+      </c>
+      <c r="V65" t="s">
+        <v>37</v>
+      </c>
+      <c r="W65" t="s">
+        <v>37</v>
+      </c>
+      <c r="X65" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ65" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK65" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL65" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM65" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN65" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO65" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:43">
       <c r="A66" s="2">
         <v>57</v>
       </c>
+      <c r="B66" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" t="s">
+        <v>37</v>
+      </c>
+      <c r="F66" t="s">
+        <v>37</v>
+      </c>
+      <c r="G66" t="s">
+        <v>37</v>
+      </c>
+      <c r="H66" t="s">
+        <v>37</v>
+      </c>
+      <c r="I66" t="s">
+        <v>37</v>
+      </c>
+      <c r="J66" t="s">
+        <v>37</v>
+      </c>
+      <c r="K66" t="s">
+        <v>37</v>
+      </c>
+      <c r="L66" t="s">
+        <v>37</v>
+      </c>
+      <c r="M66" t="s">
+        <v>37</v>
+      </c>
+      <c r="N66" t="s">
+        <v>37</v>
+      </c>
+      <c r="O66" t="s">
+        <v>37</v>
+      </c>
+      <c r="P66" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>37</v>
+      </c>
+      <c r="R66" t="s">
+        <v>37</v>
+      </c>
+      <c r="S66" t="s">
+        <v>37</v>
+      </c>
+      <c r="T66">
+        <v>58</v>
+      </c>
+      <c r="U66" t="s">
+        <v>37</v>
+      </c>
+      <c r="V66" t="s">
+        <v>37</v>
+      </c>
+      <c r="W66" t="s">
+        <v>37</v>
+      </c>
+      <c r="X66" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ66" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK66" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL66" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM66" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN66" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO66" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:43">
       <c r="A67" s="2">
         <v>58</v>
       </c>
+      <c r="B67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67" t="s">
+        <v>37</v>
+      </c>
+      <c r="F67" t="s">
+        <v>37</v>
+      </c>
+      <c r="G67" t="s">
+        <v>37</v>
+      </c>
+      <c r="H67" t="s">
+        <v>37</v>
+      </c>
+      <c r="I67" t="s">
+        <v>37</v>
+      </c>
+      <c r="J67" t="s">
+        <v>37</v>
+      </c>
+      <c r="K67" t="s">
+        <v>37</v>
+      </c>
+      <c r="L67" t="s">
+        <v>37</v>
+      </c>
+      <c r="M67" t="s">
+        <v>37</v>
+      </c>
+      <c r="N67" t="s">
+        <v>37</v>
+      </c>
+      <c r="O67" t="s">
+        <v>37</v>
+      </c>
+      <c r="P67">
+        <v>59</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>37</v>
+      </c>
+      <c r="R67" t="s">
+        <v>37</v>
+      </c>
+      <c r="S67" t="s">
+        <v>37</v>
+      </c>
+      <c r="T67" t="s">
+        <v>37</v>
+      </c>
+      <c r="U67" t="s">
+        <v>37</v>
+      </c>
+      <c r="V67" t="s">
+        <v>37</v>
+      </c>
+      <c r="W67" t="s">
+        <v>37</v>
+      </c>
+      <c r="X67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG67" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI67" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ67" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK67" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL67" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM67" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN67" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO67" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:43">
       <c r="A68" s="2">
         <v>59</v>
       </c>
+      <c r="B68" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68" t="s">
+        <v>37</v>
+      </c>
+      <c r="D68" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" t="s">
+        <v>37</v>
+      </c>
+      <c r="F68" t="s">
+        <v>37</v>
+      </c>
+      <c r="G68" t="s">
+        <v>37</v>
+      </c>
+      <c r="H68" t="s">
+        <v>37</v>
+      </c>
+      <c r="I68" t="s">
+        <v>37</v>
+      </c>
+      <c r="J68" t="s">
+        <v>37</v>
+      </c>
+      <c r="K68" t="s">
+        <v>37</v>
+      </c>
+      <c r="L68" t="s">
+        <v>37</v>
+      </c>
+      <c r="M68" t="s">
+        <v>37</v>
+      </c>
+      <c r="N68" t="s">
+        <v>37</v>
+      </c>
+      <c r="O68" t="s">
+        <v>37</v>
+      </c>
+      <c r="P68" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>37</v>
+      </c>
+      <c r="R68" t="s">
+        <v>37</v>
+      </c>
+      <c r="S68" t="s">
+        <v>37</v>
+      </c>
+      <c r="T68" t="s">
+        <v>37</v>
+      </c>
+      <c r="U68" t="s">
+        <v>37</v>
+      </c>
+      <c r="V68" t="s">
+        <v>37</v>
+      </c>
+      <c r="W68" t="s">
+        <v>37</v>
+      </c>
+      <c r="X68" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ68" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK68" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL68">
+        <v>60</v>
+      </c>
+      <c r="AM68" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN68">
+        <v>60</v>
+      </c>
+      <c r="AO68" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:43">
       <c r="A69" s="2">
         <v>60</v>
       </c>
+      <c r="B69" t="s">
+        <v>37</v>
+      </c>
+      <c r="C69" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69" t="s">
+        <v>37</v>
+      </c>
+      <c r="E69" t="s">
+        <v>37</v>
+      </c>
+      <c r="F69" t="s">
+        <v>37</v>
+      </c>
+      <c r="G69" t="s">
+        <v>37</v>
+      </c>
+      <c r="H69" t="s">
+        <v>37</v>
+      </c>
+      <c r="I69" t="s">
+        <v>37</v>
+      </c>
+      <c r="J69" t="s">
+        <v>37</v>
+      </c>
+      <c r="K69" t="s">
+        <v>37</v>
+      </c>
+      <c r="L69" t="s">
+        <v>37</v>
+      </c>
+      <c r="M69" t="s">
+        <v>37</v>
+      </c>
+      <c r="N69" t="s">
+        <v>37</v>
+      </c>
+      <c r="O69" t="s">
+        <v>37</v>
+      </c>
+      <c r="P69" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>37</v>
+      </c>
+      <c r="R69" t="s">
+        <v>37</v>
+      </c>
+      <c r="S69" t="s">
+        <v>37</v>
+      </c>
+      <c r="T69" t="s">
+        <v>37</v>
+      </c>
+      <c r="U69" t="s">
+        <v>37</v>
+      </c>
+      <c r="V69" t="s">
+        <v>37</v>
+      </c>
+      <c r="W69" t="s">
+        <v>37</v>
+      </c>
+      <c r="X69" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ69" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK69" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL69" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM69" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN69" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO69" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP69" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ69" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+    <row r="70" spans="1:43">
+      <c r="A70" s="2">
+        <v>61</v>
+      </c>
+      <c r="B70" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70" t="s">
+        <v>37</v>
+      </c>
+      <c r="D70" t="s">
+        <v>37</v>
+      </c>
+      <c r="E70" t="s">
+        <v>37</v>
+      </c>
+      <c r="F70" t="s">
+        <v>37</v>
+      </c>
+      <c r="G70" t="s">
+        <v>37</v>
+      </c>
+      <c r="H70" t="s">
+        <v>37</v>
+      </c>
+      <c r="I70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J70">
+        <v>62</v>
+      </c>
+      <c r="K70" t="s">
+        <v>37</v>
+      </c>
+      <c r="L70" t="s">
+        <v>37</v>
+      </c>
+      <c r="M70" t="s">
+        <v>37</v>
+      </c>
+      <c r="N70" t="s">
+        <v>37</v>
+      </c>
+      <c r="O70" t="s">
+        <v>37</v>
+      </c>
+      <c r="P70" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>37</v>
+      </c>
+      <c r="R70" t="s">
+        <v>37</v>
+      </c>
+      <c r="S70" t="s">
+        <v>37</v>
+      </c>
+      <c r="T70" t="s">
+        <v>37</v>
+      </c>
+      <c r="U70" t="s">
+        <v>37</v>
+      </c>
+      <c r="V70" t="s">
+        <v>37</v>
+      </c>
+      <c r="W70" t="s">
+        <v>37</v>
+      </c>
+      <c r="X70" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ70" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK70" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL70" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM70" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN70" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO70" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:43">
+      <c r="A71" s="2">
+        <v>62</v>
+      </c>
+      <c r="B71" t="s">
+        <v>37</v>
+      </c>
+      <c r="C71" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71" t="s">
+        <v>37</v>
+      </c>
+      <c r="E71" t="s">
+        <v>37</v>
+      </c>
+      <c r="F71" t="s">
+        <v>37</v>
+      </c>
+      <c r="G71" t="s">
+        <v>37</v>
+      </c>
+      <c r="H71" t="s">
+        <v>37</v>
+      </c>
+      <c r="I71" t="s">
+        <v>37</v>
+      </c>
+      <c r="J71" t="s">
+        <v>37</v>
+      </c>
+      <c r="K71" t="s">
+        <v>37</v>
+      </c>
+      <c r="L71" t="s">
+        <v>37</v>
+      </c>
+      <c r="M71" t="s">
+        <v>37</v>
+      </c>
+      <c r="N71" t="s">
+        <v>37</v>
+      </c>
+      <c r="O71">
+        <v>63</v>
+      </c>
+      <c r="P71" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>37</v>
+      </c>
+      <c r="R71" t="s">
+        <v>37</v>
+      </c>
+      <c r="S71" t="s">
+        <v>37</v>
+      </c>
+      <c r="T71" t="s">
+        <v>37</v>
+      </c>
+      <c r="U71" t="s">
+        <v>37</v>
+      </c>
+      <c r="V71" t="s">
+        <v>37</v>
+      </c>
+      <c r="W71" t="s">
+        <v>37</v>
+      </c>
+      <c r="X71" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ71" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK71" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM71" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN71" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO71" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:43">
+      <c r="A72" s="2">
+        <v>63</v>
+      </c>
+      <c r="B72" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72" t="s">
+        <v>37</v>
+      </c>
+      <c r="D72" t="s">
+        <v>37</v>
+      </c>
+      <c r="E72" t="s">
+        <v>37</v>
+      </c>
+      <c r="F72" t="s">
+        <v>37</v>
+      </c>
+      <c r="G72" t="s">
+        <v>37</v>
+      </c>
+      <c r="H72">
+        <v>64</v>
+      </c>
+      <c r="I72" t="s">
+        <v>37</v>
+      </c>
+      <c r="J72" t="s">
+        <v>37</v>
+      </c>
+      <c r="K72" t="s">
+        <v>37</v>
+      </c>
+      <c r="L72" t="s">
+        <v>37</v>
+      </c>
+      <c r="M72" t="s">
+        <v>37</v>
+      </c>
+      <c r="N72" t="s">
+        <v>37</v>
+      </c>
+      <c r="O72" t="s">
+        <v>37</v>
+      </c>
+      <c r="P72" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>37</v>
+      </c>
+      <c r="R72" t="s">
+        <v>37</v>
+      </c>
+      <c r="S72" t="s">
+        <v>37</v>
+      </c>
+      <c r="T72" t="s">
+        <v>37</v>
+      </c>
+      <c r="U72" t="s">
+        <v>37</v>
+      </c>
+      <c r="V72" t="s">
+        <v>37</v>
+      </c>
+      <c r="W72" t="s">
+        <v>37</v>
+      </c>
+      <c r="X72" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ72" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK72" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL72" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM72" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN72" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO72" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:43">
+      <c r="A73" s="2">
+        <v>64</v>
+      </c>
+      <c r="B73" t="s">
+        <v>37</v>
+      </c>
+      <c r="C73" t="s">
+        <v>37</v>
+      </c>
+      <c r="D73" t="s">
+        <v>37</v>
+      </c>
+      <c r="E73" t="s">
+        <v>37</v>
+      </c>
+      <c r="F73" t="s">
+        <v>37</v>
+      </c>
+      <c r="G73" t="s">
+        <v>37</v>
+      </c>
+      <c r="H73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I73" t="s">
+        <v>37</v>
+      </c>
+      <c r="J73" t="s">
+        <v>37</v>
+      </c>
+      <c r="K73" t="s">
+        <v>37</v>
+      </c>
+      <c r="L73" t="s">
+        <v>37</v>
+      </c>
+      <c r="M73" t="s">
+        <v>37</v>
+      </c>
+      <c r="N73" t="s">
+        <v>37</v>
+      </c>
+      <c r="O73" t="s">
+        <v>37</v>
+      </c>
+      <c r="P73" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>37</v>
+      </c>
+      <c r="R73" t="s">
+        <v>37</v>
+      </c>
+      <c r="S73" t="s">
+        <v>37</v>
+      </c>
+      <c r="T73" t="s">
+        <v>37</v>
+      </c>
+      <c r="U73" t="s">
+        <v>37</v>
+      </c>
+      <c r="V73">
+        <v>65</v>
+      </c>
+      <c r="W73" t="s">
+        <v>37</v>
+      </c>
+      <c r="X73" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ73" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK73" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM73" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN73" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO73" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:43">
+      <c r="A74" s="2">
+        <v>65</v>
+      </c>
+      <c r="B74" t="s">
+        <v>37</v>
+      </c>
+      <c r="C74" t="s">
+        <v>37</v>
+      </c>
+      <c r="D74" t="s">
+        <v>37</v>
+      </c>
+      <c r="E74" t="s">
+        <v>37</v>
+      </c>
+      <c r="F74" t="s">
+        <v>37</v>
+      </c>
+      <c r="G74" t="s">
+        <v>37</v>
+      </c>
+      <c r="H74" t="s">
+        <v>37</v>
+      </c>
+      <c r="I74" t="s">
+        <v>37</v>
+      </c>
+      <c r="J74" t="s">
+        <v>37</v>
+      </c>
+      <c r="K74" t="s">
+        <v>37</v>
+      </c>
+      <c r="L74" t="s">
+        <v>37</v>
+      </c>
+      <c r="M74" t="s">
+        <v>37</v>
+      </c>
+      <c r="N74" t="s">
+        <v>37</v>
+      </c>
+      <c r="O74">
+        <v>66</v>
+      </c>
+      <c r="P74" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>37</v>
+      </c>
+      <c r="R74" t="s">
+        <v>37</v>
+      </c>
+      <c r="S74" t="s">
+        <v>37</v>
+      </c>
+      <c r="T74" t="s">
+        <v>37</v>
+      </c>
+      <c r="U74" t="s">
+        <v>37</v>
+      </c>
+      <c r="V74" t="s">
+        <v>37</v>
+      </c>
+      <c r="W74" t="s">
+        <v>37</v>
+      </c>
+      <c r="X74" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG74" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ74" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK74" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL74" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM74" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN74" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO74" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" spans="1:43">
+      <c r="A75" s="2">
+        <v>66</v>
+      </c>
+      <c r="B75" t="s">
+        <v>37</v>
+      </c>
+      <c r="C75" t="s">
+        <v>37</v>
+      </c>
+      <c r="D75" t="s">
+        <v>37</v>
+      </c>
+      <c r="E75" t="s">
+        <v>37</v>
+      </c>
+      <c r="F75" t="s">
+        <v>37</v>
+      </c>
+      <c r="G75" t="s">
+        <v>37</v>
+      </c>
+      <c r="H75" t="s">
+        <v>37</v>
+      </c>
+      <c r="I75" t="s">
+        <v>37</v>
+      </c>
+      <c r="J75" t="s">
+        <v>37</v>
+      </c>
+      <c r="K75" t="s">
+        <v>37</v>
+      </c>
+      <c r="L75" t="s">
+        <v>37</v>
+      </c>
+      <c r="M75" t="s">
+        <v>37</v>
+      </c>
+      <c r="N75" t="s">
+        <v>37</v>
+      </c>
+      <c r="O75" t="s">
+        <v>37</v>
+      </c>
+      <c r="P75">
+        <v>67</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>37</v>
+      </c>
+      <c r="R75" t="s">
+        <v>37</v>
+      </c>
+      <c r="S75" t="s">
+        <v>37</v>
+      </c>
+      <c r="T75" t="s">
+        <v>37</v>
+      </c>
+      <c r="U75" t="s">
+        <v>37</v>
+      </c>
+      <c r="V75" t="s">
+        <v>37</v>
+      </c>
+      <c r="W75" t="s">
+        <v>37</v>
+      </c>
+      <c r="X75" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE75" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG75" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH75" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI75" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ75" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK75" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL75" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM75" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN75" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO75" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="1:43">
+      <c r="A76" s="2">
+        <v>67</v>
+      </c>
+      <c r="B76" t="s">
+        <v>37</v>
+      </c>
+      <c r="C76" t="s">
+        <v>37</v>
+      </c>
+      <c r="D76" t="s">
+        <v>37</v>
+      </c>
+      <c r="E76" t="s">
+        <v>37</v>
+      </c>
+      <c r="F76" t="s">
+        <v>37</v>
+      </c>
+      <c r="G76" t="s">
+        <v>37</v>
+      </c>
+      <c r="H76" t="s">
+        <v>37</v>
+      </c>
+      <c r="I76" t="s">
+        <v>37</v>
+      </c>
+      <c r="J76" t="s">
+        <v>37</v>
+      </c>
+      <c r="K76" t="s">
+        <v>37</v>
+      </c>
+      <c r="L76" t="s">
+        <v>37</v>
+      </c>
+      <c r="M76" t="s">
+        <v>37</v>
+      </c>
+      <c r="N76" t="s">
+        <v>37</v>
+      </c>
+      <c r="O76" t="s">
+        <v>37</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>37</v>
+      </c>
+      <c r="R76" t="s">
+        <v>37</v>
+      </c>
+      <c r="S76" t="s">
+        <v>37</v>
+      </c>
+      <c r="T76" t="s">
+        <v>37</v>
+      </c>
+      <c r="U76" t="s">
+        <v>37</v>
+      </c>
+      <c r="V76" t="s">
+        <v>37</v>
+      </c>
+      <c r="W76" t="s">
+        <v>37</v>
+      </c>
+      <c r="X76" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ76" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK76" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL76">
+        <v>68</v>
+      </c>
+      <c r="AM76" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN76">
+        <v>68</v>
+      </c>
+      <c r="AO76" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:43">
+      <c r="A77" s="2">
+        <v>68</v>
+      </c>
+      <c r="B77" t="s">
+        <v>37</v>
+      </c>
+      <c r="C77" t="s">
+        <v>37</v>
+      </c>
+      <c r="D77" t="s">
+        <v>37</v>
+      </c>
+      <c r="E77" t="s">
+        <v>37</v>
+      </c>
+      <c r="F77" t="s">
+        <v>37</v>
+      </c>
+      <c r="G77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H77" t="s">
+        <v>37</v>
+      </c>
+      <c r="I77" t="s">
+        <v>37</v>
+      </c>
+      <c r="J77" t="s">
+        <v>37</v>
+      </c>
+      <c r="K77" t="s">
+        <v>37</v>
+      </c>
+      <c r="L77" t="s">
+        <v>37</v>
+      </c>
+      <c r="M77" t="s">
+        <v>37</v>
+      </c>
+      <c r="N77" t="s">
+        <v>37</v>
+      </c>
+      <c r="O77" t="s">
+        <v>37</v>
+      </c>
+      <c r="P77" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>37</v>
+      </c>
+      <c r="R77" t="s">
+        <v>37</v>
+      </c>
+      <c r="S77" t="s">
+        <v>37</v>
+      </c>
+      <c r="T77" t="s">
+        <v>37</v>
+      </c>
+      <c r="U77" t="s">
+        <v>37</v>
+      </c>
+      <c r="V77" t="s">
+        <v>37</v>
+      </c>
+      <c r="W77" t="s">
+        <v>37</v>
+      </c>
+      <c r="X77" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG77" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH77" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI77" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ77" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK77" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL77" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM77" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN77" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO77" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP77" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ77" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="1:43">
+      <c r="A78" s="2">
+        <v>69</v>
+      </c>
+      <c r="B78" t="s">
+        <v>37</v>
+      </c>
+      <c r="C78" t="s">
+        <v>37</v>
+      </c>
+      <c r="D78" t="s">
+        <v>37</v>
+      </c>
+      <c r="E78" t="s">
+        <v>37</v>
+      </c>
+      <c r="F78" t="s">
+        <v>37</v>
+      </c>
+      <c r="G78" t="s">
+        <v>37</v>
+      </c>
+      <c r="H78" t="s">
+        <v>37</v>
+      </c>
+      <c r="I78" t="s">
+        <v>37</v>
+      </c>
+      <c r="J78" t="s">
+        <v>37</v>
+      </c>
+      <c r="K78" t="s">
+        <v>37</v>
+      </c>
+      <c r="L78" t="s">
+        <v>37</v>
+      </c>
+      <c r="M78" t="s">
+        <v>37</v>
+      </c>
+      <c r="N78" t="s">
+        <v>37</v>
+      </c>
+      <c r="O78" t="s">
+        <v>37</v>
+      </c>
+      <c r="P78" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>37</v>
+      </c>
+      <c r="R78" t="s">
+        <v>37</v>
+      </c>
+      <c r="S78" t="s">
+        <v>37</v>
+      </c>
+      <c r="T78" t="s">
+        <v>37</v>
+      </c>
+      <c r="U78" t="s">
+        <v>37</v>
+      </c>
+      <c r="V78" t="s">
+        <v>37</v>
+      </c>
+      <c r="W78">
+        <v>70</v>
+      </c>
+      <c r="X78" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE78" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF78" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG78" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH78" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI78" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ78" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK78" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL78" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM78" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN78" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO78" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" spans="1:43">
+      <c r="A79" s="2">
+        <v>70</v>
+      </c>
+      <c r="B79">
+        <v>71</v>
+      </c>
+      <c r="C79" t="s">
+        <v>37</v>
+      </c>
+      <c r="D79" t="s">
+        <v>37</v>
+      </c>
+      <c r="E79" t="s">
+        <v>37</v>
+      </c>
+      <c r="F79" t="s">
+        <v>37</v>
+      </c>
+      <c r="G79" t="s">
+        <v>37</v>
+      </c>
+      <c r="H79" t="s">
+        <v>37</v>
+      </c>
+      <c r="I79" t="s">
+        <v>37</v>
+      </c>
+      <c r="J79" t="s">
+        <v>37</v>
+      </c>
+      <c r="K79" t="s">
+        <v>37</v>
+      </c>
+      <c r="L79" t="s">
+        <v>37</v>
+      </c>
+      <c r="M79" t="s">
+        <v>37</v>
+      </c>
+      <c r="N79" t="s">
+        <v>37</v>
+      </c>
+      <c r="O79" t="s">
+        <v>37</v>
+      </c>
+      <c r="P79" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>37</v>
+      </c>
+      <c r="R79" t="s">
+        <v>37</v>
+      </c>
+      <c r="S79" t="s">
+        <v>37</v>
+      </c>
+      <c r="T79" t="s">
+        <v>37</v>
+      </c>
+      <c r="U79" t="s">
+        <v>37</v>
+      </c>
+      <c r="V79" t="s">
+        <v>37</v>
+      </c>
+      <c r="W79" t="s">
+        <v>37</v>
+      </c>
+      <c r="X79" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD79" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE79" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF79" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG79" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH79" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI79" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ79" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK79" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL79" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM79" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN79" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO79" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="1:43">
+      <c r="A80" s="2">
+        <v>71</v>
+      </c>
+      <c r="B80" t="s">
+        <v>37</v>
+      </c>
+      <c r="C80" t="s">
+        <v>37</v>
+      </c>
+      <c r="D80" t="s">
+        <v>37</v>
+      </c>
+      <c r="E80" t="s">
+        <v>37</v>
+      </c>
+      <c r="F80" t="s">
+        <v>37</v>
+      </c>
+      <c r="G80" t="s">
+        <v>37</v>
+      </c>
+      <c r="H80" t="s">
+        <v>37</v>
+      </c>
+      <c r="I80" t="s">
+        <v>37</v>
+      </c>
+      <c r="J80" t="s">
+        <v>37</v>
+      </c>
+      <c r="K80" t="s">
+        <v>37</v>
+      </c>
+      <c r="L80" t="s">
+        <v>37</v>
+      </c>
+      <c r="M80">
+        <v>72</v>
+      </c>
+      <c r="N80" t="s">
+        <v>37</v>
+      </c>
+      <c r="O80" t="s">
+        <v>37</v>
+      </c>
+      <c r="P80" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>37</v>
+      </c>
+      <c r="R80" t="s">
+        <v>37</v>
+      </c>
+      <c r="S80" t="s">
+        <v>37</v>
+      </c>
+      <c r="T80" t="s">
+        <v>37</v>
+      </c>
+      <c r="U80" t="s">
+        <v>37</v>
+      </c>
+      <c r="V80" t="s">
+        <v>37</v>
+      </c>
+      <c r="W80" t="s">
+        <v>37</v>
+      </c>
+      <c r="X80" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD80" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE80" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF80" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG80" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH80" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI80" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ80" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK80" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL80" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM80" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN80" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO80" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" spans="1:43">
+      <c r="A81" s="2">
+        <v>72</v>
+      </c>
+      <c r="B81" t="s">
+        <v>37</v>
+      </c>
+      <c r="C81" t="s">
+        <v>37</v>
+      </c>
+      <c r="D81" t="s">
+        <v>37</v>
+      </c>
+      <c r="E81" t="s">
+        <v>37</v>
+      </c>
+      <c r="F81" t="s">
+        <v>37</v>
+      </c>
+      <c r="G81" t="s">
+        <v>37</v>
+      </c>
+      <c r="H81" t="s">
+        <v>37</v>
+      </c>
+      <c r="I81" t="s">
+        <v>37</v>
+      </c>
+      <c r="J81" t="s">
+        <v>37</v>
+      </c>
+      <c r="K81" t="s">
+        <v>37</v>
+      </c>
+      <c r="L81" t="s">
+        <v>37</v>
+      </c>
+      <c r="M81" t="s">
+        <v>37</v>
+      </c>
+      <c r="N81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O81" t="s">
+        <v>37</v>
+      </c>
+      <c r="P81" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>37</v>
+      </c>
+      <c r="R81" t="s">
+        <v>37</v>
+      </c>
+      <c r="S81" t="s">
+        <v>37</v>
+      </c>
+      <c r="T81" t="s">
+        <v>37</v>
+      </c>
+      <c r="U81" t="s">
+        <v>37</v>
+      </c>
+      <c r="V81">
+        <v>73</v>
+      </c>
+      <c r="W81" t="s">
+        <v>37</v>
+      </c>
+      <c r="X81" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE81" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF81" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG81" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH81" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI81" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ81" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK81" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL81" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM81" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN81" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO81" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" spans="1:43">
+      <c r="A82" s="2">
+        <v>73</v>
+      </c>
+      <c r="B82">
+        <v>74</v>
+      </c>
+      <c r="C82" t="s">
+        <v>37</v>
+      </c>
+      <c r="D82" t="s">
+        <v>37</v>
+      </c>
+      <c r="E82" t="s">
+        <v>37</v>
+      </c>
+      <c r="F82" t="s">
+        <v>37</v>
+      </c>
+      <c r="G82" t="s">
+        <v>37</v>
+      </c>
+      <c r="H82" t="s">
+        <v>37</v>
+      </c>
+      <c r="I82" t="s">
+        <v>37</v>
+      </c>
+      <c r="J82" t="s">
+        <v>37</v>
+      </c>
+      <c r="K82" t="s">
+        <v>37</v>
+      </c>
+      <c r="L82" t="s">
+        <v>37</v>
+      </c>
+      <c r="M82" t="s">
+        <v>37</v>
+      </c>
+      <c r="N82" t="s">
+        <v>37</v>
+      </c>
+      <c r="O82" t="s">
+        <v>37</v>
+      </c>
+      <c r="P82" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>37</v>
+      </c>
+      <c r="R82" t="s">
+        <v>37</v>
+      </c>
+      <c r="S82" t="s">
+        <v>37</v>
+      </c>
+      <c r="T82" t="s">
+        <v>37</v>
+      </c>
+      <c r="U82" t="s">
+        <v>37</v>
+      </c>
+      <c r="V82" t="s">
+        <v>37</v>
+      </c>
+      <c r="W82" t="s">
+        <v>37</v>
+      </c>
+      <c r="X82" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD82" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE82" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF82" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG82" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH82" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI82" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ82" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK82" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL82" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM82" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN82" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO82" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="1:43">
+      <c r="A83" s="2">
+        <v>74</v>
+      </c>
+      <c r="B83" t="s">
+        <v>37</v>
+      </c>
+      <c r="C83" t="s">
+        <v>37</v>
+      </c>
+      <c r="D83" t="s">
+        <v>37</v>
+      </c>
+      <c r="E83" t="s">
+        <v>37</v>
+      </c>
+      <c r="F83" t="s">
+        <v>37</v>
+      </c>
+      <c r="G83" t="s">
+        <v>37</v>
+      </c>
+      <c r="H83" t="s">
+        <v>37</v>
+      </c>
+      <c r="I83" t="s">
+        <v>37</v>
+      </c>
+      <c r="J83" t="s">
+        <v>37</v>
+      </c>
+      <c r="K83" t="s">
+        <v>37</v>
+      </c>
+      <c r="L83" t="s">
+        <v>37</v>
+      </c>
+      <c r="M83" t="s">
+        <v>37</v>
+      </c>
+      <c r="N83" t="s">
+        <v>37</v>
+      </c>
+      <c r="O83" t="s">
+        <v>37</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>37</v>
+      </c>
+      <c r="R83" t="s">
+        <v>37</v>
+      </c>
+      <c r="S83" t="s">
+        <v>37</v>
+      </c>
+      <c r="T83" t="s">
+        <v>37</v>
+      </c>
+      <c r="U83" t="s">
+        <v>37</v>
+      </c>
+      <c r="V83" t="s">
+        <v>37</v>
+      </c>
+      <c r="W83" t="s">
+        <v>37</v>
+      </c>
+      <c r="X83" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD83" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE83" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF83" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG83" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH83" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI83" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ83" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK83" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL83">
+        <v>75</v>
+      </c>
+      <c r="AM83">
+        <v>75</v>
+      </c>
+      <c r="AN83">
+        <v>75</v>
+      </c>
+      <c r="AO83" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84" spans="1:43">
+      <c r="A84" s="2">
+        <v>75</v>
+      </c>
+      <c r="B84" t="s">
+        <v>37</v>
+      </c>
+      <c r="C84" t="s">
+        <v>37</v>
+      </c>
+      <c r="D84" t="s">
+        <v>37</v>
+      </c>
+      <c r="E84" t="s">
+        <v>37</v>
+      </c>
+      <c r="F84" t="s">
+        <v>37</v>
+      </c>
+      <c r="G84" t="s">
+        <v>37</v>
+      </c>
+      <c r="H84" t="s">
+        <v>37</v>
+      </c>
+      <c r="I84" t="s">
+        <v>37</v>
+      </c>
+      <c r="J84" t="s">
+        <v>37</v>
+      </c>
+      <c r="K84" t="s">
+        <v>37</v>
+      </c>
+      <c r="L84" t="s">
+        <v>37</v>
+      </c>
+      <c r="M84" t="s">
+        <v>37</v>
+      </c>
+      <c r="N84" t="s">
+        <v>37</v>
+      </c>
+      <c r="O84" t="s">
+        <v>37</v>
+      </c>
+      <c r="P84" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>37</v>
+      </c>
+      <c r="R84" t="s">
+        <v>37</v>
+      </c>
+      <c r="S84" t="s">
+        <v>37</v>
+      </c>
+      <c r="T84" t="s">
+        <v>37</v>
+      </c>
+      <c r="U84" t="s">
+        <v>37</v>
+      </c>
+      <c r="V84" t="s">
+        <v>37</v>
+      </c>
+      <c r="W84" t="s">
+        <v>37</v>
+      </c>
+      <c r="X84" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC84" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD84" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE84" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF84" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG84" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH84" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI84" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ84" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK84" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL84" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM84" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN84" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO84" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP84" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ84" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:43">
+      <c r="A85" s="2">
+        <v>76</v>
+      </c>
+      <c r="B85" t="s">
+        <v>37</v>
+      </c>
+      <c r="C85" t="s">
+        <v>37</v>
+      </c>
+      <c r="D85" t="s">
+        <v>37</v>
+      </c>
+      <c r="E85" t="s">
+        <v>37</v>
+      </c>
+      <c r="F85">
+        <v>77</v>
+      </c>
+      <c r="G85" t="s">
+        <v>37</v>
+      </c>
+      <c r="H85" t="s">
+        <v>37</v>
+      </c>
+      <c r="I85" t="s">
+        <v>37</v>
+      </c>
+      <c r="J85" t="s">
+        <v>37</v>
+      </c>
+      <c r="K85" t="s">
+        <v>37</v>
+      </c>
+      <c r="L85" t="s">
+        <v>37</v>
+      </c>
+      <c r="M85" t="s">
+        <v>37</v>
+      </c>
+      <c r="N85" t="s">
+        <v>37</v>
+      </c>
+      <c r="O85" t="s">
+        <v>37</v>
+      </c>
+      <c r="P85" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>37</v>
+      </c>
+      <c r="R85" t="s">
+        <v>37</v>
+      </c>
+      <c r="S85" t="s">
+        <v>37</v>
+      </c>
+      <c r="T85" t="s">
+        <v>37</v>
+      </c>
+      <c r="U85" t="s">
+        <v>37</v>
+      </c>
+      <c r="V85" t="s">
+        <v>37</v>
+      </c>
+      <c r="W85" t="s">
+        <v>37</v>
+      </c>
+      <c r="X85" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC85" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD85" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE85" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF85" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG85" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH85" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI85" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ85" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK85" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL85" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM85" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN85" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO85" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="86" spans="1:43">
+      <c r="A86" s="2">
+        <v>77</v>
+      </c>
+      <c r="B86" t="s">
+        <v>37</v>
+      </c>
+      <c r="C86" t="s">
+        <v>37</v>
+      </c>
+      <c r="D86" t="s">
+        <v>37</v>
+      </c>
+      <c r="E86" t="s">
+        <v>37</v>
+      </c>
+      <c r="F86" t="s">
+        <v>37</v>
+      </c>
+      <c r="G86" t="s">
+        <v>37</v>
+      </c>
+      <c r="H86" t="s">
+        <v>37</v>
+      </c>
+      <c r="I86" t="s">
+        <v>37</v>
+      </c>
+      <c r="J86" t="s">
+        <v>37</v>
+      </c>
+      <c r="K86" t="s">
+        <v>37</v>
+      </c>
+      <c r="L86" t="s">
+        <v>37</v>
+      </c>
+      <c r="M86" t="s">
+        <v>37</v>
+      </c>
+      <c r="N86" t="s">
+        <v>37</v>
+      </c>
+      <c r="O86" t="s">
+        <v>37</v>
+      </c>
+      <c r="P86" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>37</v>
+      </c>
+      <c r="R86" t="s">
+        <v>37</v>
+      </c>
+      <c r="S86" t="s">
+        <v>37</v>
+      </c>
+      <c r="T86">
+        <v>78</v>
+      </c>
+      <c r="U86" t="s">
+        <v>37</v>
+      </c>
+      <c r="V86" t="s">
+        <v>37</v>
+      </c>
+      <c r="W86" t="s">
+        <v>37</v>
+      </c>
+      <c r="X86" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD86" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE86" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF86" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG86" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH86" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI86" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ86" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK86" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL86" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM86" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN86" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO86" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="87" spans="1:43">
+      <c r="A87" s="2">
+        <v>78</v>
+      </c>
+      <c r="B87" t="s">
+        <v>37</v>
+      </c>
+      <c r="C87" t="s">
+        <v>37</v>
+      </c>
+      <c r="D87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E87">
+        <v>79</v>
+      </c>
+      <c r="F87" t="s">
+        <v>37</v>
+      </c>
+      <c r="G87" t="s">
+        <v>37</v>
+      </c>
+      <c r="H87" t="s">
+        <v>37</v>
+      </c>
+      <c r="I87" t="s">
+        <v>37</v>
+      </c>
+      <c r="J87" t="s">
+        <v>37</v>
+      </c>
+      <c r="K87" t="s">
+        <v>37</v>
+      </c>
+      <c r="L87" t="s">
+        <v>37</v>
+      </c>
+      <c r="M87" t="s">
+        <v>37</v>
+      </c>
+      <c r="N87" t="s">
+        <v>37</v>
+      </c>
+      <c r="O87" t="s">
+        <v>37</v>
+      </c>
+      <c r="P87" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>37</v>
+      </c>
+      <c r="R87" t="s">
+        <v>37</v>
+      </c>
+      <c r="S87" t="s">
+        <v>37</v>
+      </c>
+      <c r="T87" t="s">
+        <v>37</v>
+      </c>
+      <c r="U87" t="s">
+        <v>37</v>
+      </c>
+      <c r="V87" t="s">
+        <v>37</v>
+      </c>
+      <c r="W87" t="s">
+        <v>37</v>
+      </c>
+      <c r="X87" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA87" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD87" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE87" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF87" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG87" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH87" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI87" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ87" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK87" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL87" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM87" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN87" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO87" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="88" spans="1:43">
+      <c r="A88" s="2">
+        <v>79</v>
+      </c>
+      <c r="B88" t="s">
+        <v>37</v>
+      </c>
+      <c r="C88" t="s">
+        <v>37</v>
+      </c>
+      <c r="D88" t="s">
+        <v>37</v>
+      </c>
+      <c r="E88" t="s">
+        <v>37</v>
+      </c>
+      <c r="F88">
+        <v>80</v>
+      </c>
+      <c r="G88" t="s">
+        <v>37</v>
+      </c>
+      <c r="H88" t="s">
+        <v>37</v>
+      </c>
+      <c r="I88" t="s">
+        <v>37</v>
+      </c>
+      <c r="J88" t="s">
+        <v>37</v>
+      </c>
+      <c r="K88" t="s">
+        <v>37</v>
+      </c>
+      <c r="L88" t="s">
+        <v>37</v>
+      </c>
+      <c r="M88" t="s">
+        <v>37</v>
+      </c>
+      <c r="N88" t="s">
+        <v>37</v>
+      </c>
+      <c r="O88" t="s">
+        <v>37</v>
+      </c>
+      <c r="P88" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>37</v>
+      </c>
+      <c r="R88" t="s">
+        <v>37</v>
+      </c>
+      <c r="S88" t="s">
+        <v>37</v>
+      </c>
+      <c r="T88" t="s">
+        <v>37</v>
+      </c>
+      <c r="U88" t="s">
+        <v>37</v>
+      </c>
+      <c r="V88" t="s">
+        <v>37</v>
+      </c>
+      <c r="W88" t="s">
+        <v>37</v>
+      </c>
+      <c r="X88" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA88" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC88" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD88" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE88" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF88" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG88" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH88" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI88" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ88" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK88" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL88" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM88" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN88" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO88" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="89" spans="1:43">
+      <c r="A89" s="2">
+        <v>80</v>
+      </c>
+      <c r="B89" t="s">
+        <v>37</v>
+      </c>
+      <c r="C89" t="s">
+        <v>37</v>
+      </c>
+      <c r="D89" t="s">
+        <v>37</v>
+      </c>
+      <c r="E89" t="s">
+        <v>37</v>
+      </c>
+      <c r="F89" t="s">
+        <v>37</v>
+      </c>
+      <c r="G89" t="s">
+        <v>37</v>
+      </c>
+      <c r="H89" t="s">
+        <v>37</v>
+      </c>
+      <c r="I89" t="s">
+        <v>37</v>
+      </c>
+      <c r="J89" t="s">
+        <v>37</v>
+      </c>
+      <c r="K89" t="s">
+        <v>37</v>
+      </c>
+      <c r="L89" t="s">
+        <v>37</v>
+      </c>
+      <c r="M89" t="s">
+        <v>37</v>
+      </c>
+      <c r="N89" t="s">
+        <v>37</v>
+      </c>
+      <c r="O89" t="s">
+        <v>37</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>37</v>
+      </c>
+      <c r="R89" t="s">
+        <v>37</v>
+      </c>
+      <c r="S89" t="s">
+        <v>37</v>
+      </c>
+      <c r="T89" t="s">
+        <v>37</v>
+      </c>
+      <c r="U89" t="s">
+        <v>37</v>
+      </c>
+      <c r="V89" t="s">
+        <v>37</v>
+      </c>
+      <c r="W89" t="s">
+        <v>37</v>
+      </c>
+      <c r="X89" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA89" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB89" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC89" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD89" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE89" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF89" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG89" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH89" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI89" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ89" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK89" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL89">
+        <v>81</v>
+      </c>
+      <c r="AM89" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN89">
+        <v>81</v>
+      </c>
+      <c r="AO89" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="90" spans="1:43">
+      <c r="A90" s="2">
+        <v>81</v>
+      </c>
+      <c r="B90" t="s">
+        <v>37</v>
+      </c>
+      <c r="C90" t="s">
+        <v>37</v>
+      </c>
+      <c r="D90" t="s">
+        <v>37</v>
+      </c>
+      <c r="E90" t="s">
+        <v>37</v>
+      </c>
+      <c r="F90" t="s">
+        <v>37</v>
+      </c>
+      <c r="G90" t="s">
+        <v>37</v>
+      </c>
+      <c r="H90" t="s">
+        <v>37</v>
+      </c>
+      <c r="I90" t="s">
+        <v>37</v>
+      </c>
+      <c r="J90" t="s">
+        <v>37</v>
+      </c>
+      <c r="K90" t="s">
+        <v>37</v>
+      </c>
+      <c r="L90" t="s">
+        <v>37</v>
+      </c>
+      <c r="M90" t="s">
+        <v>37</v>
+      </c>
+      <c r="N90" t="s">
+        <v>37</v>
+      </c>
+      <c r="O90" t="s">
+        <v>37</v>
+      </c>
+      <c r="P90" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>37</v>
+      </c>
+      <c r="R90" t="s">
+        <v>37</v>
+      </c>
+      <c r="S90" t="s">
+        <v>37</v>
+      </c>
+      <c r="T90" t="s">
+        <v>37</v>
+      </c>
+      <c r="U90" t="s">
+        <v>37</v>
+      </c>
+      <c r="V90" t="s">
+        <v>37</v>
+      </c>
+      <c r="W90" t="s">
+        <v>37</v>
+      </c>
+      <c r="X90" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA90" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB90" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC90" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD90" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE90" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF90" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG90" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH90" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI90" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ90" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK90" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL90" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM90" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN90" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO90" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP90" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ90" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="91" spans="1:43">
+      <c r="A91" s="2">
+        <v>82</v>
+      </c>
+      <c r="B91">
+        <v>83</v>
+      </c>
+      <c r="C91" t="s">
+        <v>37</v>
+      </c>
+      <c r="D91" t="s">
+        <v>37</v>
+      </c>
+      <c r="E91" t="s">
+        <v>37</v>
+      </c>
+      <c r="F91" t="s">
+        <v>37</v>
+      </c>
+      <c r="G91" t="s">
+        <v>37</v>
+      </c>
+      <c r="H91" t="s">
+        <v>37</v>
+      </c>
+      <c r="I91" t="s">
+        <v>37</v>
+      </c>
+      <c r="J91" t="s">
+        <v>37</v>
+      </c>
+      <c r="K91" t="s">
+        <v>37</v>
+      </c>
+      <c r="L91" t="s">
+        <v>37</v>
+      </c>
+      <c r="M91" t="s">
+        <v>37</v>
+      </c>
+      <c r="N91" t="s">
+        <v>37</v>
+      </c>
+      <c r="O91" t="s">
+        <v>37</v>
+      </c>
+      <c r="P91" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>37</v>
+      </c>
+      <c r="R91" t="s">
+        <v>37</v>
+      </c>
+      <c r="S91" t="s">
+        <v>37</v>
+      </c>
+      <c r="T91" t="s">
+        <v>37</v>
+      </c>
+      <c r="U91" t="s">
+        <v>37</v>
+      </c>
+      <c r="V91" t="s">
+        <v>37</v>
+      </c>
+      <c r="W91" t="s">
+        <v>37</v>
+      </c>
+      <c r="X91" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA91" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC91" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD91" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE91" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF91" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG91" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH91" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI91" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ91" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK91" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL91" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM91" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN91" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="92" spans="1:43">
+      <c r="A92" s="2">
+        <v>83</v>
+      </c>
+      <c r="B92" t="s">
+        <v>37</v>
+      </c>
+      <c r="C92" t="s">
+        <v>37</v>
+      </c>
+      <c r="D92" t="s">
+        <v>37</v>
+      </c>
+      <c r="E92" t="s">
+        <v>37</v>
+      </c>
+      <c r="F92" t="s">
+        <v>37</v>
+      </c>
+      <c r="G92" t="s">
+        <v>37</v>
+      </c>
+      <c r="H92" t="s">
+        <v>37</v>
+      </c>
+      <c r="I92" t="s">
+        <v>37</v>
+      </c>
+      <c r="J92" t="s">
+        <v>37</v>
+      </c>
+      <c r="K92" t="s">
+        <v>37</v>
+      </c>
+      <c r="L92" t="s">
+        <v>37</v>
+      </c>
+      <c r="M92" t="s">
+        <v>37</v>
+      </c>
+      <c r="N92" t="s">
+        <v>37</v>
+      </c>
+      <c r="O92" t="s">
+        <v>37</v>
+      </c>
+      <c r="P92" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>37</v>
+      </c>
+      <c r="R92" t="s">
+        <v>37</v>
+      </c>
+      <c r="S92" t="s">
+        <v>37</v>
+      </c>
+      <c r="T92">
+        <v>84</v>
+      </c>
+      <c r="U92" t="s">
+        <v>37</v>
+      </c>
+      <c r="V92" t="s">
+        <v>37</v>
+      </c>
+      <c r="W92" t="s">
+        <v>37</v>
+      </c>
+      <c r="X92" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA92">
+        <v>120</v>
+      </c>
+      <c r="AB92" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC92" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD92" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE92" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF92" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG92" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH92" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI92" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ92" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK92" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL92" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM92" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN92" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO92" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="93" spans="1:43">
+      <c r="A93" s="2">
+        <v>84</v>
+      </c>
+      <c r="B93" t="s">
+        <v>37</v>
+      </c>
+      <c r="C93" t="s">
+        <v>37</v>
+      </c>
+      <c r="D93" t="s">
+        <v>37</v>
+      </c>
+      <c r="E93" t="s">
+        <v>37</v>
+      </c>
+      <c r="F93" t="s">
+        <v>37</v>
+      </c>
+      <c r="G93" t="s">
+        <v>37</v>
+      </c>
+      <c r="H93" t="s">
+        <v>37</v>
+      </c>
+      <c r="I93" t="s">
+        <v>37</v>
+      </c>
+      <c r="J93" t="s">
+        <v>37</v>
+      </c>
+      <c r="K93" t="s">
+        <v>37</v>
+      </c>
+      <c r="L93" t="s">
+        <v>37</v>
+      </c>
+      <c r="M93" t="s">
+        <v>37</v>
+      </c>
+      <c r="N93" t="s">
+        <v>37</v>
+      </c>
+      <c r="O93" t="s">
+        <v>37</v>
+      </c>
+      <c r="P93" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>37</v>
+      </c>
+      <c r="R93" t="s">
+        <v>37</v>
+      </c>
+      <c r="S93" t="s">
+        <v>37</v>
+      </c>
+      <c r="T93" t="s">
+        <v>37</v>
+      </c>
+      <c r="U93" s="3">
+        <v>85</v>
+      </c>
+      <c r="V93" t="s">
+        <v>37</v>
+      </c>
+      <c r="W93" t="s">
+        <v>37</v>
+      </c>
+      <c r="X93" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA93" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB93" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC93" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD93" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE93" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF93" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG93" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH93" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI93" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ93" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK93" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL93" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM93" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN93" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO93" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="94" spans="1:43">
+      <c r="A94" s="2">
+        <v>85</v>
+      </c>
+      <c r="B94">
+        <v>86</v>
+      </c>
+      <c r="C94" t="s">
+        <v>37</v>
+      </c>
+      <c r="D94" t="s">
+        <v>37</v>
+      </c>
+      <c r="E94" t="s">
+        <v>37</v>
+      </c>
+      <c r="F94" t="s">
+        <v>37</v>
+      </c>
+      <c r="G94" t="s">
+        <v>37</v>
+      </c>
+      <c r="H94" t="s">
+        <v>37</v>
+      </c>
+      <c r="I94" t="s">
+        <v>37</v>
+      </c>
+      <c r="J94" t="s">
+        <v>37</v>
+      </c>
+      <c r="K94" t="s">
+        <v>37</v>
+      </c>
+      <c r="L94" t="s">
+        <v>37</v>
+      </c>
+      <c r="M94" t="s">
+        <v>37</v>
+      </c>
+      <c r="N94" t="s">
+        <v>37</v>
+      </c>
+      <c r="O94" t="s">
+        <v>37</v>
+      </c>
+      <c r="P94" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>37</v>
+      </c>
+      <c r="R94" t="s">
+        <v>37</v>
+      </c>
+      <c r="S94" t="s">
+        <v>37</v>
+      </c>
+      <c r="T94" t="s">
+        <v>37</v>
+      </c>
+      <c r="U94" t="s">
+        <v>37</v>
+      </c>
+      <c r="V94" t="s">
+        <v>37</v>
+      </c>
+      <c r="W94" t="s">
+        <v>37</v>
+      </c>
+      <c r="X94" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA94" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC94" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD94" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE94" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF94" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG94" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH94" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI94" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ94" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK94" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL94" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM94" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN94" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO94" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="95" spans="1:43">
+      <c r="A95" s="2">
+        <v>86</v>
+      </c>
+      <c r="B95" t="s">
+        <v>37</v>
+      </c>
+      <c r="C95" t="s">
+        <v>37</v>
+      </c>
+      <c r="D95" t="s">
+        <v>37</v>
+      </c>
+      <c r="E95" t="s">
+        <v>37</v>
+      </c>
+      <c r="F95" t="s">
+        <v>37</v>
+      </c>
+      <c r="G95" t="s">
+        <v>37</v>
+      </c>
+      <c r="H95" t="s">
+        <v>37</v>
+      </c>
+      <c r="I95" t="s">
+        <v>37</v>
+      </c>
+      <c r="J95" t="s">
+        <v>37</v>
+      </c>
+      <c r="K95" t="s">
+        <v>37</v>
+      </c>
+      <c r="L95" t="s">
+        <v>37</v>
+      </c>
+      <c r="M95" t="s">
+        <v>37</v>
+      </c>
+      <c r="N95" t="s">
+        <v>37</v>
+      </c>
+      <c r="O95" t="s">
+        <v>37</v>
+      </c>
+      <c r="P95" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>37</v>
+      </c>
+      <c r="R95" t="s">
+        <v>37</v>
+      </c>
+      <c r="S95" t="s">
+        <v>37</v>
+      </c>
+      <c r="T95" t="s">
+        <v>37</v>
+      </c>
+      <c r="U95" t="s">
+        <v>37</v>
+      </c>
+      <c r="V95" t="s">
+        <v>37</v>
+      </c>
+      <c r="W95" t="s">
+        <v>37</v>
+      </c>
+      <c r="X95" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA95" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB95" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC95" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD95" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE95" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF95" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG95" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH95" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI95" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ95" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK95" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL95">
+        <v>87</v>
+      </c>
+      <c r="AM95" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN95">
+        <v>87</v>
+      </c>
+      <c r="AO95" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="96" spans="1:43">
+      <c r="A96" s="2">
+        <v>87</v>
+      </c>
+      <c r="B96" t="s">
+        <v>37</v>
+      </c>
+      <c r="C96" t="s">
+        <v>37</v>
+      </c>
+      <c r="D96" t="s">
+        <v>37</v>
+      </c>
+      <c r="E96" t="s">
+        <v>37</v>
+      </c>
+      <c r="F96" t="s">
+        <v>37</v>
+      </c>
+      <c r="G96" t="s">
+        <v>37</v>
+      </c>
+      <c r="H96" t="s">
+        <v>37</v>
+      </c>
+      <c r="I96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J96" t="s">
+        <v>37</v>
+      </c>
+      <c r="K96" t="s">
+        <v>37</v>
+      </c>
+      <c r="L96" t="s">
+        <v>37</v>
+      </c>
+      <c r="M96" t="s">
+        <v>37</v>
+      </c>
+      <c r="N96" t="s">
+        <v>37</v>
+      </c>
+      <c r="O96" t="s">
+        <v>37</v>
+      </c>
+      <c r="P96" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>37</v>
+      </c>
+      <c r="R96" t="s">
+        <v>37</v>
+      </c>
+      <c r="S96" t="s">
+        <v>37</v>
+      </c>
+      <c r="T96" t="s">
+        <v>37</v>
+      </c>
+      <c r="U96" t="s">
+        <v>37</v>
+      </c>
+      <c r="V96" t="s">
+        <v>37</v>
+      </c>
+      <c r="W96" t="s">
+        <v>37</v>
+      </c>
+      <c r="X96" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA96" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB96" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC96" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD96" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE96" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF96" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG96" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH96" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI96" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ96" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK96" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL96" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM96" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN96" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO96" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP96" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ96" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="97" spans="1:43">
+      <c r="A97" s="2">
+        <v>88</v>
+      </c>
+      <c r="B97" t="s">
+        <v>37</v>
+      </c>
+      <c r="C97" t="s">
+        <v>37</v>
+      </c>
+      <c r="D97" t="s">
+        <v>37</v>
+      </c>
+      <c r="E97" t="s">
+        <v>37</v>
+      </c>
+      <c r="F97">
+        <v>89</v>
+      </c>
+      <c r="G97" t="s">
+        <v>37</v>
+      </c>
+      <c r="H97" t="s">
+        <v>37</v>
+      </c>
+      <c r="I97" t="s">
+        <v>37</v>
+      </c>
+      <c r="J97" t="s">
+        <v>37</v>
+      </c>
+      <c r="K97" t="s">
+        <v>37</v>
+      </c>
+      <c r="L97" t="s">
+        <v>37</v>
+      </c>
+      <c r="M97" t="s">
+        <v>37</v>
+      </c>
+      <c r="N97" t="s">
+        <v>37</v>
+      </c>
+      <c r="O97" t="s">
+        <v>37</v>
+      </c>
+      <c r="P97" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>37</v>
+      </c>
+      <c r="R97" t="s">
+        <v>37</v>
+      </c>
+      <c r="S97" t="s">
+        <v>37</v>
+      </c>
+      <c r="T97" t="s">
+        <v>37</v>
+      </c>
+      <c r="U97" t="s">
+        <v>37</v>
+      </c>
+      <c r="V97" t="s">
+        <v>37</v>
+      </c>
+      <c r="W97" t="s">
+        <v>37</v>
+      </c>
+      <c r="X97" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z97" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA97" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB97" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC97" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD97" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE97" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF97" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG97" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH97" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI97" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ97" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK97" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL97" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM97" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN97" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO97" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="98" spans="1:43">
+      <c r="A98" s="2">
+        <v>89</v>
+      </c>
+      <c r="B98" t="s">
+        <v>37</v>
+      </c>
+      <c r="C98" t="s">
+        <v>37</v>
+      </c>
+      <c r="D98" t="s">
+        <v>37</v>
+      </c>
+      <c r="E98" t="s">
+        <v>37</v>
+      </c>
+      <c r="F98" t="s">
+        <v>37</v>
+      </c>
+      <c r="G98" t="s">
+        <v>37</v>
+      </c>
+      <c r="H98" t="s">
+        <v>37</v>
+      </c>
+      <c r="I98" t="s">
+        <v>37</v>
+      </c>
+      <c r="J98" t="s">
+        <v>37</v>
+      </c>
+      <c r="K98" t="s">
+        <v>37</v>
+      </c>
+      <c r="L98" t="s">
+        <v>37</v>
+      </c>
+      <c r="M98" t="s">
+        <v>37</v>
+      </c>
+      <c r="N98" t="s">
+        <v>37</v>
+      </c>
+      <c r="O98" t="s">
+        <v>37</v>
+      </c>
+      <c r="P98" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>37</v>
+      </c>
+      <c r="R98" t="s">
+        <v>37</v>
+      </c>
+      <c r="S98">
+        <v>90</v>
+      </c>
+      <c r="T98" t="s">
+        <v>37</v>
+      </c>
+      <c r="U98" t="s">
+        <v>37</v>
+      </c>
+      <c r="V98" t="s">
+        <v>37</v>
+      </c>
+      <c r="W98" t="s">
+        <v>37</v>
+      </c>
+      <c r="X98" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z98" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB98" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC98" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD98" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE98" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF98" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG98" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH98" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI98" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ98" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK98" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL98" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM98" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN98" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO98" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="99" spans="1:43">
+      <c r="A99" s="2">
+        <v>90</v>
+      </c>
+      <c r="B99" t="s">
+        <v>37</v>
+      </c>
+      <c r="C99" t="s">
+        <v>37</v>
+      </c>
+      <c r="D99" t="s">
+        <v>37</v>
+      </c>
+      <c r="E99" t="s">
+        <v>37</v>
+      </c>
+      <c r="F99" t="s">
+        <v>37</v>
+      </c>
+      <c r="G99" t="s">
+        <v>37</v>
+      </c>
+      <c r="H99" t="s">
+        <v>37</v>
+      </c>
+      <c r="I99" t="s">
+        <v>37</v>
+      </c>
+      <c r="J99" t="s">
+        <v>37</v>
+      </c>
+      <c r="K99" t="s">
+        <v>37</v>
+      </c>
+      <c r="L99" t="s">
+        <v>37</v>
+      </c>
+      <c r="M99" t="s">
+        <v>37</v>
+      </c>
+      <c r="N99" t="s">
+        <v>37</v>
+      </c>
+      <c r="O99" t="s">
+        <v>37</v>
+      </c>
+      <c r="P99" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>37</v>
+      </c>
+      <c r="R99" t="s">
+        <v>37</v>
+      </c>
+      <c r="S99" t="s">
+        <v>37</v>
+      </c>
+      <c r="T99" t="s">
+        <v>37</v>
+      </c>
+      <c r="U99" t="s">
+        <v>37</v>
+      </c>
+      <c r="V99" t="s">
+        <v>37</v>
+      </c>
+      <c r="W99">
+        <v>91</v>
+      </c>
+      <c r="X99" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z99" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB99" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC99" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD99" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE99" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF99" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG99" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH99" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI99" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ99" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK99" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL99" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM99" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN99" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO99" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="100" spans="1:43">
+      <c r="A100" s="2">
+        <v>91</v>
+      </c>
+      <c r="B100">
+        <v>92</v>
+      </c>
+      <c r="C100" t="s">
+        <v>37</v>
+      </c>
+      <c r="D100" t="s">
+        <v>37</v>
+      </c>
+      <c r="E100" t="s">
+        <v>37</v>
+      </c>
+      <c r="F100" t="s">
+        <v>37</v>
+      </c>
+      <c r="G100" t="s">
+        <v>37</v>
+      </c>
+      <c r="H100" t="s">
+        <v>37</v>
+      </c>
+      <c r="I100" t="s">
+        <v>37</v>
+      </c>
+      <c r="J100" t="s">
+        <v>37</v>
+      </c>
+      <c r="K100" t="s">
+        <v>37</v>
+      </c>
+      <c r="L100" t="s">
+        <v>37</v>
+      </c>
+      <c r="M100" t="s">
+        <v>37</v>
+      </c>
+      <c r="N100" t="s">
+        <v>37</v>
+      </c>
+      <c r="O100" t="s">
+        <v>37</v>
+      </c>
+      <c r="P100" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>37</v>
+      </c>
+      <c r="R100" t="s">
+        <v>37</v>
+      </c>
+      <c r="S100" t="s">
+        <v>37</v>
+      </c>
+      <c r="T100" t="s">
+        <v>37</v>
+      </c>
+      <c r="U100" t="s">
+        <v>37</v>
+      </c>
+      <c r="V100" t="s">
+        <v>37</v>
+      </c>
+      <c r="W100" t="s">
+        <v>37</v>
+      </c>
+      <c r="X100" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z100" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB100" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD100" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE100" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF100" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG100" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH100" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI100" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ100" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK100" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL100" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM100" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN100" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO100" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="101" spans="1:43">
+      <c r="A101" s="2">
+        <v>92</v>
+      </c>
+      <c r="B101" t="s">
+        <v>37</v>
+      </c>
+      <c r="C101" t="s">
+        <v>37</v>
+      </c>
+      <c r="D101" t="s">
+        <v>37</v>
+      </c>
+      <c r="E101" t="s">
+        <v>37</v>
+      </c>
+      <c r="F101" t="s">
+        <v>37</v>
+      </c>
+      <c r="G101" t="s">
+        <v>37</v>
+      </c>
+      <c r="H101" t="s">
+        <v>37</v>
+      </c>
+      <c r="I101" t="s">
+        <v>37</v>
+      </c>
+      <c r="J101" t="s">
+        <v>37</v>
+      </c>
+      <c r="K101" t="s">
+        <v>37</v>
+      </c>
+      <c r="L101" t="s">
+        <v>37</v>
+      </c>
+      <c r="M101">
+        <v>93</v>
+      </c>
+      <c r="N101" t="s">
+        <v>37</v>
+      </c>
+      <c r="O101" t="s">
+        <v>37</v>
+      </c>
+      <c r="P101" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>37</v>
+      </c>
+      <c r="R101" t="s">
+        <v>37</v>
+      </c>
+      <c r="S101" t="s">
+        <v>37</v>
+      </c>
+      <c r="T101" t="s">
+        <v>37</v>
+      </c>
+      <c r="U101" t="s">
+        <v>37</v>
+      </c>
+      <c r="V101" t="s">
+        <v>37</v>
+      </c>
+      <c r="W101" t="s">
+        <v>37</v>
+      </c>
+      <c r="X101" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z101" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB101" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC101" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD101" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE101" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF101" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG101" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH101" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI101" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ101" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK101" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL101" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM101" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN101" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO101" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="102" spans="1:43">
+      <c r="A102" s="2">
+        <v>93</v>
+      </c>
+      <c r="B102" t="s">
+        <v>37</v>
+      </c>
+      <c r="C102" t="s">
+        <v>37</v>
+      </c>
+      <c r="D102" t="s">
+        <v>37</v>
+      </c>
+      <c r="E102" t="s">
+        <v>37</v>
+      </c>
+      <c r="F102" t="s">
+        <v>37</v>
+      </c>
+      <c r="G102" t="s">
+        <v>37</v>
+      </c>
+      <c r="H102" t="s">
+        <v>37</v>
+      </c>
+      <c r="I102" t="s">
+        <v>37</v>
+      </c>
+      <c r="J102" t="s">
+        <v>37</v>
+      </c>
+      <c r="K102" t="s">
+        <v>37</v>
+      </c>
+      <c r="L102" t="s">
+        <v>37</v>
+      </c>
+      <c r="M102" t="s">
+        <v>37</v>
+      </c>
+      <c r="N102" t="s">
+        <v>37</v>
+      </c>
+      <c r="O102" t="s">
+        <v>37</v>
+      </c>
+      <c r="P102">
+        <v>94</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>37</v>
+      </c>
+      <c r="R102" t="s">
+        <v>37</v>
+      </c>
+      <c r="S102" t="s">
+        <v>37</v>
+      </c>
+      <c r="T102" t="s">
+        <v>37</v>
+      </c>
+      <c r="U102" t="s">
+        <v>37</v>
+      </c>
+      <c r="V102" t="s">
+        <v>37</v>
+      </c>
+      <c r="W102" t="s">
+        <v>37</v>
+      </c>
+      <c r="X102" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z102" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB102" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC102" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD102" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE102" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF102" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG102" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH102" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI102" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ102" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK102" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL102" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM102" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN102" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO102" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="103" spans="1:43">
+      <c r="A103" s="2">
+        <v>94</v>
+      </c>
+      <c r="B103" t="s">
+        <v>37</v>
+      </c>
+      <c r="C103" t="s">
+        <v>37</v>
+      </c>
+      <c r="D103" t="s">
+        <v>37</v>
+      </c>
+      <c r="E103" t="s">
+        <v>37</v>
+      </c>
+      <c r="F103" t="s">
+        <v>37</v>
+      </c>
+      <c r="G103" t="s">
+        <v>37</v>
+      </c>
+      <c r="H103" t="s">
+        <v>37</v>
+      </c>
+      <c r="I103" t="s">
+        <v>37</v>
+      </c>
+      <c r="J103" t="s">
+        <v>37</v>
+      </c>
+      <c r="K103" t="s">
+        <v>37</v>
+      </c>
+      <c r="L103" t="s">
+        <v>37</v>
+      </c>
+      <c r="M103" t="s">
+        <v>37</v>
+      </c>
+      <c r="N103" t="s">
+        <v>37</v>
+      </c>
+      <c r="O103" t="s">
+        <v>37</v>
+      </c>
+      <c r="P103" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>37</v>
+      </c>
+      <c r="R103" t="s">
+        <v>37</v>
+      </c>
+      <c r="S103" t="s">
+        <v>37</v>
+      </c>
+      <c r="T103" t="s">
+        <v>37</v>
+      </c>
+      <c r="U103" t="s">
+        <v>37</v>
+      </c>
+      <c r="V103" t="s">
+        <v>37</v>
+      </c>
+      <c r="W103" t="s">
+        <v>37</v>
+      </c>
+      <c r="X103" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z103" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB103" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC103" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD103" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE103" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF103" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG103" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH103" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI103" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ103" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK103" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL103">
+        <v>95</v>
+      </c>
+      <c r="AM103" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN103" s="3">
+        <v>95</v>
+      </c>
+      <c r="AO103" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="104" spans="1:43">
+      <c r="A104" s="2">
+        <v>95</v>
+      </c>
+      <c r="B104" t="s">
+        <v>37</v>
+      </c>
+      <c r="C104" t="s">
+        <v>37</v>
+      </c>
+      <c r="D104" t="s">
+        <v>37</v>
+      </c>
+      <c r="E104" t="s">
+        <v>37</v>
+      </c>
+      <c r="F104" t="s">
+        <v>37</v>
+      </c>
+      <c r="G104" t="s">
+        <v>37</v>
+      </c>
+      <c r="H104" t="s">
+        <v>37</v>
+      </c>
+      <c r="I104" t="s">
+        <v>37</v>
+      </c>
+      <c r="J104" t="s">
+        <v>37</v>
+      </c>
+      <c r="K104" t="s">
+        <v>37</v>
+      </c>
+      <c r="L104" t="s">
+        <v>37</v>
+      </c>
+      <c r="M104" t="s">
+        <v>37</v>
+      </c>
+      <c r="N104" t="s">
+        <v>37</v>
+      </c>
+      <c r="O104" t="s">
+        <v>37</v>
+      </c>
+      <c r="P104" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>37</v>
+      </c>
+      <c r="R104" t="s">
+        <v>37</v>
+      </c>
+      <c r="S104" t="s">
+        <v>37</v>
+      </c>
+      <c r="T104" t="s">
+        <v>37</v>
+      </c>
+      <c r="U104" t="s">
+        <v>37</v>
+      </c>
+      <c r="V104" t="s">
+        <v>37</v>
+      </c>
+      <c r="W104" t="s">
+        <v>37</v>
+      </c>
+      <c r="X104" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z104" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB104" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC104" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD104" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE104" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF104" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG104" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH104" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI104" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ104" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK104" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL104" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM104" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN104" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO104" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP104" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ104" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="105" spans="1:43">
+      <c r="A105" s="2">
+        <v>96</v>
+      </c>
+      <c r="B105" t="s">
+        <v>37</v>
+      </c>
+      <c r="C105" t="s">
+        <v>37</v>
+      </c>
+      <c r="D105" t="s">
+        <v>37</v>
+      </c>
+      <c r="E105" t="s">
+        <v>37</v>
+      </c>
+      <c r="F105">
+        <v>97</v>
+      </c>
+      <c r="G105" t="s">
+        <v>37</v>
+      </c>
+      <c r="H105" t="s">
+        <v>37</v>
+      </c>
+      <c r="I105" t="s">
+        <v>37</v>
+      </c>
+      <c r="J105" t="s">
+        <v>37</v>
+      </c>
+      <c r="K105" t="s">
+        <v>37</v>
+      </c>
+      <c r="L105" t="s">
+        <v>37</v>
+      </c>
+      <c r="M105" t="s">
+        <v>37</v>
+      </c>
+      <c r="N105" t="s">
+        <v>37</v>
+      </c>
+      <c r="O105" t="s">
+        <v>37</v>
+      </c>
+      <c r="P105" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>37</v>
+      </c>
+      <c r="R105" t="s">
+        <v>37</v>
+      </c>
+      <c r="S105" t="s">
+        <v>37</v>
+      </c>
+      <c r="T105" t="s">
+        <v>37</v>
+      </c>
+      <c r="U105" t="s">
+        <v>37</v>
+      </c>
+      <c r="V105" t="s">
+        <v>37</v>
+      </c>
+      <c r="W105" t="s">
+        <v>37</v>
+      </c>
+      <c r="X105" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z105" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB105" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC105" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD105" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE105" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF105" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG105" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH105" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI105" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ105" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK105" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL105" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM105" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN105" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO105" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="106" spans="1:43">
+      <c r="A106" s="2">
+        <v>97</v>
+      </c>
+      <c r="B106" t="s">
+        <v>37</v>
+      </c>
+      <c r="C106" t="s">
+        <v>37</v>
+      </c>
+      <c r="D106" t="s">
+        <v>37</v>
+      </c>
+      <c r="E106" t="s">
+        <v>37</v>
+      </c>
+      <c r="F106" t="s">
+        <v>37</v>
+      </c>
+      <c r="G106" t="s">
+        <v>37</v>
+      </c>
+      <c r="H106" t="s">
+        <v>37</v>
+      </c>
+      <c r="I106" t="s">
+        <v>37</v>
+      </c>
+      <c r="J106" t="s">
+        <v>37</v>
+      </c>
+      <c r="K106" t="s">
+        <v>37</v>
+      </c>
+      <c r="L106" t="s">
+        <v>37</v>
+      </c>
+      <c r="M106" t="s">
+        <v>37</v>
+      </c>
+      <c r="N106" t="s">
+        <v>37</v>
+      </c>
+      <c r="O106" t="s">
+        <v>37</v>
+      </c>
+      <c r="P106" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>37</v>
+      </c>
+      <c r="R106" t="s">
+        <v>37</v>
+      </c>
+      <c r="S106" t="s">
+        <v>37</v>
+      </c>
+      <c r="T106">
+        <v>98</v>
+      </c>
+      <c r="U106" t="s">
+        <v>37</v>
+      </c>
+      <c r="V106" t="s">
+        <v>37</v>
+      </c>
+      <c r="W106" t="s">
+        <v>37</v>
+      </c>
+      <c r="X106" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z106" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB106" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC106" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD106" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE106" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF106" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG106" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH106" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI106" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ106" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK106" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL106" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM106" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN106" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO106" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="107" spans="1:43">
+      <c r="A107" s="2">
+        <v>98</v>
+      </c>
+      <c r="B107" t="s">
+        <v>37</v>
+      </c>
+      <c r="C107" t="s">
+        <v>37</v>
+      </c>
+      <c r="D107" t="s">
+        <v>37</v>
+      </c>
+      <c r="E107">
+        <v>99</v>
+      </c>
+      <c r="F107" t="s">
+        <v>37</v>
+      </c>
+      <c r="G107" t="s">
+        <v>37</v>
+      </c>
+      <c r="H107" t="s">
+        <v>37</v>
+      </c>
+      <c r="I107" t="s">
+        <v>37</v>
+      </c>
+      <c r="J107" t="s">
+        <v>37</v>
+      </c>
+      <c r="K107" t="s">
+        <v>37</v>
+      </c>
+      <c r="L107" t="s">
+        <v>37</v>
+      </c>
+      <c r="M107" t="s">
+        <v>37</v>
+      </c>
+      <c r="N107" t="s">
+        <v>37</v>
+      </c>
+      <c r="O107" t="s">
+        <v>37</v>
+      </c>
+      <c r="P107" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>37</v>
+      </c>
+      <c r="R107" t="s">
+        <v>37</v>
+      </c>
+      <c r="S107" t="s">
+        <v>37</v>
+      </c>
+      <c r="T107" t="s">
+        <v>37</v>
+      </c>
+      <c r="U107" t="s">
+        <v>37</v>
+      </c>
+      <c r="V107" t="s">
+        <v>37</v>
+      </c>
+      <c r="W107" t="s">
+        <v>37</v>
+      </c>
+      <c r="X107" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z107" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA107" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB107" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC107" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD107" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE107" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF107" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG107" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH107" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI107" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ107" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK107" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL107" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM107" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN107" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO107" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="108" spans="1:43">
+      <c r="A108" s="2">
+        <v>99</v>
+      </c>
+      <c r="B108" t="s">
+        <v>37</v>
+      </c>
+      <c r="C108" t="s">
+        <v>37</v>
+      </c>
+      <c r="D108" t="s">
+        <v>37</v>
+      </c>
+      <c r="E108" t="s">
+        <v>37</v>
+      </c>
+      <c r="F108">
+        <v>100</v>
+      </c>
+      <c r="G108" t="s">
+        <v>37</v>
+      </c>
+      <c r="H108" t="s">
+        <v>37</v>
+      </c>
+      <c r="I108" t="s">
+        <v>37</v>
+      </c>
+      <c r="J108" t="s">
+        <v>37</v>
+      </c>
+      <c r="K108" t="s">
+        <v>37</v>
+      </c>
+      <c r="L108" t="s">
+        <v>37</v>
+      </c>
+      <c r="M108" t="s">
+        <v>37</v>
+      </c>
+      <c r="N108" t="s">
+        <v>37</v>
+      </c>
+      <c r="O108" t="s">
+        <v>37</v>
+      </c>
+      <c r="P108" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>37</v>
+      </c>
+      <c r="R108" t="s">
+        <v>37</v>
+      </c>
+      <c r="S108" t="s">
+        <v>37</v>
+      </c>
+      <c r="T108" t="s">
+        <v>37</v>
+      </c>
+      <c r="U108" t="s">
+        <v>37</v>
+      </c>
+      <c r="V108" t="s">
+        <v>37</v>
+      </c>
+      <c r="W108" t="s">
+        <v>37</v>
+      </c>
+      <c r="X108" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z108" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB108" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC108" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD108" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE108" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF108" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG108" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH108" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI108" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ108" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK108" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL108" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM108" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN108" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO108" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="109" spans="1:43">
+      <c r="A109" s="2">
+        <v>100</v>
+      </c>
+      <c r="B109" t="s">
+        <v>37</v>
+      </c>
+      <c r="C109" t="s">
+        <v>37</v>
+      </c>
+      <c r="D109" t="s">
+        <v>37</v>
+      </c>
+      <c r="E109" t="s">
+        <v>37</v>
+      </c>
+      <c r="F109" t="s">
+        <v>37</v>
+      </c>
+      <c r="G109" t="s">
+        <v>37</v>
+      </c>
+      <c r="H109" t="s">
+        <v>37</v>
+      </c>
+      <c r="I109" t="s">
+        <v>37</v>
+      </c>
+      <c r="J109" t="s">
+        <v>37</v>
+      </c>
+      <c r="K109" t="s">
+        <v>37</v>
+      </c>
+      <c r="L109" t="s">
+        <v>37</v>
+      </c>
+      <c r="M109" t="s">
+        <v>37</v>
+      </c>
+      <c r="N109" t="s">
+        <v>37</v>
+      </c>
+      <c r="O109" t="s">
+        <v>37</v>
+      </c>
+      <c r="P109" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>37</v>
+      </c>
+      <c r="R109" t="s">
+        <v>37</v>
+      </c>
+      <c r="S109" t="s">
+        <v>37</v>
+      </c>
+      <c r="T109" t="s">
+        <v>37</v>
+      </c>
+      <c r="U109" t="s">
+        <v>37</v>
+      </c>
+      <c r="V109" t="s">
+        <v>37</v>
+      </c>
+      <c r="W109" t="s">
+        <v>37</v>
+      </c>
+      <c r="X109" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z109" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB109" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC109" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD109" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE109" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF109" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG109" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH109" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI109" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ109" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK109" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL109">
+        <v>101</v>
+      </c>
+      <c r="AM109">
+        <v>101</v>
+      </c>
+      <c r="AN109">
+        <v>101</v>
+      </c>
+      <c r="AO109" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="110" spans="1:43">
+      <c r="A110" s="2">
+        <v>101</v>
+      </c>
+      <c r="B110" t="s">
+        <v>37</v>
+      </c>
+      <c r="C110" t="s">
+        <v>37</v>
+      </c>
+      <c r="D110" t="s">
+        <v>37</v>
+      </c>
+      <c r="E110" t="s">
+        <v>37</v>
+      </c>
+      <c r="F110" t="s">
+        <v>37</v>
+      </c>
+      <c r="G110" t="s">
+        <v>37</v>
+      </c>
+      <c r="H110" t="s">
+        <v>37</v>
+      </c>
+      <c r="I110" t="s">
+        <v>37</v>
+      </c>
+      <c r="J110" t="s">
+        <v>37</v>
+      </c>
+      <c r="K110" t="s">
+        <v>37</v>
+      </c>
+      <c r="L110" t="s">
+        <v>37</v>
+      </c>
+      <c r="M110" t="s">
+        <v>37</v>
+      </c>
+      <c r="N110" t="s">
+        <v>37</v>
+      </c>
+      <c r="O110" t="s">
+        <v>37</v>
+      </c>
+      <c r="P110" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>37</v>
+      </c>
+      <c r="R110" t="s">
+        <v>37</v>
+      </c>
+      <c r="S110" t="s">
+        <v>37</v>
+      </c>
+      <c r="T110" t="s">
+        <v>37</v>
+      </c>
+      <c r="U110" t="s">
+        <v>37</v>
+      </c>
+      <c r="V110" t="s">
+        <v>37</v>
+      </c>
+      <c r="W110" t="s">
+        <v>37</v>
+      </c>
+      <c r="X110" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z110" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB110" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC110" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD110" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE110" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF110" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG110" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH110" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI110" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ110" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK110" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL110" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM110" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN110" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO110" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP110" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ110" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="111" spans="1:43">
+      <c r="A111" s="2">
+        <v>102</v>
+      </c>
+      <c r="B111" t="s">
+        <v>37</v>
+      </c>
+      <c r="C111" t="s">
+        <v>37</v>
+      </c>
+      <c r="D111" t="s">
+        <v>37</v>
+      </c>
+      <c r="E111" t="s">
+        <v>37</v>
+      </c>
+      <c r="F111" t="s">
+        <v>37</v>
+      </c>
+      <c r="G111" t="s">
+        <v>37</v>
+      </c>
+      <c r="H111" t="s">
+        <v>37</v>
+      </c>
+      <c r="I111" t="s">
+        <v>37</v>
+      </c>
+      <c r="J111">
+        <v>103</v>
+      </c>
+      <c r="K111" t="s">
+        <v>37</v>
+      </c>
+      <c r="L111" t="s">
+        <v>37</v>
+      </c>
+      <c r="M111" t="s">
+        <v>37</v>
+      </c>
+      <c r="N111" t="s">
+        <v>37</v>
+      </c>
+      <c r="O111" t="s">
+        <v>37</v>
+      </c>
+      <c r="P111" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>37</v>
+      </c>
+      <c r="R111" t="s">
+        <v>37</v>
+      </c>
+      <c r="S111" t="s">
+        <v>37</v>
+      </c>
+      <c r="T111" t="s">
+        <v>37</v>
+      </c>
+      <c r="U111" t="s">
+        <v>37</v>
+      </c>
+      <c r="V111" t="s">
+        <v>37</v>
+      </c>
+      <c r="W111" t="s">
+        <v>37</v>
+      </c>
+      <c r="X111" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z111" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA111" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB111" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC111" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD111" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE111" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF111" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG111" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH111" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI111" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ111" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK111" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL111" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM111" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN111" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO111" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="112" spans="1:43">
+      <c r="A112" s="2">
+        <v>103</v>
+      </c>
+      <c r="B112" t="s">
+        <v>37</v>
+      </c>
+      <c r="C112" t="s">
+        <v>37</v>
+      </c>
+      <c r="D112" t="s">
+        <v>37</v>
+      </c>
+      <c r="E112" t="s">
+        <v>37</v>
+      </c>
+      <c r="F112" s="3">
+        <v>104</v>
+      </c>
+      <c r="G112" t="s">
+        <v>37</v>
+      </c>
+      <c r="H112" t="s">
+        <v>37</v>
+      </c>
+      <c r="I112" t="s">
+        <v>37</v>
+      </c>
+      <c r="J112" t="s">
+        <v>37</v>
+      </c>
+      <c r="K112" t="s">
+        <v>37</v>
+      </c>
+      <c r="L112" t="s">
+        <v>37</v>
+      </c>
+      <c r="M112" t="s">
+        <v>37</v>
+      </c>
+      <c r="N112" t="s">
+        <v>37</v>
+      </c>
+      <c r="O112" t="s">
+        <v>37</v>
+      </c>
+      <c r="P112" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>37</v>
+      </c>
+      <c r="R112" t="s">
+        <v>37</v>
+      </c>
+      <c r="S112" t="s">
+        <v>37</v>
+      </c>
+      <c r="T112" t="s">
+        <v>37</v>
+      </c>
+      <c r="U112" t="s">
+        <v>37</v>
+      </c>
+      <c r="V112" t="s">
+        <v>37</v>
+      </c>
+      <c r="W112" t="s">
+        <v>37</v>
+      </c>
+      <c r="X112" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y112" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z112" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA112" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB112" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC112" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD112" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE112" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF112" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG112" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH112" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI112" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ112" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK112" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL112" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM112" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN112" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO112" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="113" spans="1:43">
+      <c r="A113" s="2">
+        <v>104</v>
+      </c>
+      <c r="B113" t="s">
+        <v>37</v>
+      </c>
+      <c r="C113" t="s">
+        <v>37</v>
+      </c>
+      <c r="D113" t="s">
+        <v>37</v>
+      </c>
+      <c r="E113" t="s">
+        <v>37</v>
+      </c>
+      <c r="F113" t="s">
+        <v>37</v>
+      </c>
+      <c r="G113" t="s">
+        <v>37</v>
+      </c>
+      <c r="H113" t="s">
+        <v>37</v>
+      </c>
+      <c r="I113" t="s">
+        <v>37</v>
+      </c>
+      <c r="J113" t="s">
+        <v>37</v>
+      </c>
+      <c r="K113" t="s">
+        <v>37</v>
+      </c>
+      <c r="L113" t="s">
+        <v>37</v>
+      </c>
+      <c r="M113" t="s">
+        <v>37</v>
+      </c>
+      <c r="N113" t="s">
+        <v>37</v>
+      </c>
+      <c r="O113">
+        <v>105</v>
+      </c>
+      <c r="P113" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>37</v>
+      </c>
+      <c r="R113" t="s">
+        <v>37</v>
+      </c>
+      <c r="S113" t="s">
+        <v>37</v>
+      </c>
+      <c r="T113" t="s">
+        <v>37</v>
+      </c>
+      <c r="U113" t="s">
+        <v>37</v>
+      </c>
+      <c r="V113" t="s">
+        <v>37</v>
+      </c>
+      <c r="W113" t="s">
+        <v>37</v>
+      </c>
+      <c r="X113" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z113" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA113" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB113" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC113" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD113" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE113" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF113" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG113" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH113" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI113" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ113" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK113" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL113" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM113" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN113" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO113" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="114" spans="1:43">
+      <c r="A114" s="2">
+        <v>105</v>
+      </c>
+      <c r="B114" t="s">
+        <v>37</v>
+      </c>
+      <c r="C114" t="s">
+        <v>37</v>
+      </c>
+      <c r="D114" t="s">
+        <v>37</v>
+      </c>
+      <c r="E114" t="s">
+        <v>37</v>
+      </c>
+      <c r="F114" t="s">
+        <v>37</v>
+      </c>
+      <c r="G114" t="s">
+        <v>37</v>
+      </c>
+      <c r="H114" t="s">
+        <v>37</v>
+      </c>
+      <c r="I114" t="s">
+        <v>37</v>
+      </c>
+      <c r="J114" t="s">
+        <v>37</v>
+      </c>
+      <c r="K114" t="s">
+        <v>37</v>
+      </c>
+      <c r="L114" t="s">
+        <v>37</v>
+      </c>
+      <c r="M114" t="s">
+        <v>37</v>
+      </c>
+      <c r="N114" t="s">
+        <v>37</v>
+      </c>
+      <c r="O114" t="s">
+        <v>37</v>
+      </c>
+      <c r="P114" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>37</v>
+      </c>
+      <c r="R114" t="s">
+        <v>37</v>
+      </c>
+      <c r="S114" t="s">
+        <v>37</v>
+      </c>
+      <c r="T114" t="s">
+        <v>37</v>
+      </c>
+      <c r="U114" s="3">
+        <v>106</v>
+      </c>
+      <c r="V114" t="s">
+        <v>37</v>
+      </c>
+      <c r="W114" t="s">
+        <v>37</v>
+      </c>
+      <c r="X114" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y114" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z114" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA114" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB114" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC114" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD114" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE114" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF114" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG114" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH114" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI114" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ114" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK114" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL114" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM114" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN114" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO114" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="115" spans="1:43">
+      <c r="A115" s="2">
+        <v>106</v>
+      </c>
+      <c r="B115" t="s">
+        <v>37</v>
+      </c>
+      <c r="C115" t="s">
+        <v>37</v>
+      </c>
+      <c r="D115" t="s">
+        <v>37</v>
+      </c>
+      <c r="E115" t="s">
+        <v>37</v>
+      </c>
+      <c r="F115" t="s">
+        <v>37</v>
+      </c>
+      <c r="G115" t="s">
+        <v>37</v>
+      </c>
+      <c r="H115" t="s">
+        <v>37</v>
+      </c>
+      <c r="I115" t="s">
+        <v>37</v>
+      </c>
+      <c r="J115" t="s">
+        <v>37</v>
+      </c>
+      <c r="K115" t="s">
+        <v>37</v>
+      </c>
+      <c r="L115" t="s">
+        <v>37</v>
+      </c>
+      <c r="M115" t="s">
+        <v>37</v>
+      </c>
+      <c r="N115" t="s">
+        <v>37</v>
+      </c>
+      <c r="O115" t="s">
+        <v>37</v>
+      </c>
+      <c r="P115" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>37</v>
+      </c>
+      <c r="R115" t="s">
+        <v>37</v>
+      </c>
+      <c r="S115">
+        <v>107</v>
+      </c>
+      <c r="T115" t="s">
+        <v>37</v>
+      </c>
+      <c r="U115" t="s">
+        <v>37</v>
+      </c>
+      <c r="V115" t="s">
+        <v>37</v>
+      </c>
+      <c r="W115" t="s">
+        <v>37</v>
+      </c>
+      <c r="X115" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z115" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA115" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB115" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC115" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD115" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE115" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF115" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG115" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH115" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI115" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ115" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK115" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL115" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM115" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN115" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO115" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="116" spans="1:43">
+      <c r="A116" s="2">
+        <v>107</v>
+      </c>
+      <c r="B116">
+        <v>108</v>
+      </c>
+      <c r="C116" t="s">
+        <v>37</v>
+      </c>
+      <c r="D116" t="s">
+        <v>37</v>
+      </c>
+      <c r="E116" t="s">
+        <v>37</v>
+      </c>
+      <c r="F116" t="s">
+        <v>37</v>
+      </c>
+      <c r="G116" t="s">
+        <v>37</v>
+      </c>
+      <c r="H116" t="s">
+        <v>37</v>
+      </c>
+      <c r="I116" t="s">
+        <v>37</v>
+      </c>
+      <c r="J116" t="s">
+        <v>37</v>
+      </c>
+      <c r="K116" t="s">
+        <v>37</v>
+      </c>
+      <c r="L116" t="s">
+        <v>37</v>
+      </c>
+      <c r="M116" t="s">
+        <v>37</v>
+      </c>
+      <c r="N116" t="s">
+        <v>37</v>
+      </c>
+      <c r="O116" t="s">
+        <v>37</v>
+      </c>
+      <c r="P116" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>37</v>
+      </c>
+      <c r="R116" t="s">
+        <v>37</v>
+      </c>
+      <c r="S116" t="s">
+        <v>37</v>
+      </c>
+      <c r="T116" t="s">
+        <v>37</v>
+      </c>
+      <c r="U116" t="s">
+        <v>37</v>
+      </c>
+      <c r="V116" t="s">
+        <v>37</v>
+      </c>
+      <c r="W116" t="s">
+        <v>37</v>
+      </c>
+      <c r="X116" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y116" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z116" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA116" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB116" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC116" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD116" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE116" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF116" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG116" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH116" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI116" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ116" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK116" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL116" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM116" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN116" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO116" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="117" spans="1:43">
+      <c r="A117" s="2">
+        <v>108</v>
+      </c>
+      <c r="B117" t="s">
+        <v>37</v>
+      </c>
+      <c r="C117" t="s">
+        <v>37</v>
+      </c>
+      <c r="D117" t="s">
+        <v>37</v>
+      </c>
+      <c r="E117" t="s">
+        <v>37</v>
+      </c>
+      <c r="F117" t="s">
+        <v>37</v>
+      </c>
+      <c r="G117" t="s">
+        <v>37</v>
+      </c>
+      <c r="H117" t="s">
+        <v>37</v>
+      </c>
+      <c r="I117" t="s">
+        <v>37</v>
+      </c>
+      <c r="J117" t="s">
+        <v>37</v>
+      </c>
+      <c r="K117" t="s">
+        <v>37</v>
+      </c>
+      <c r="L117" t="s">
+        <v>37</v>
+      </c>
+      <c r="M117" t="s">
+        <v>37</v>
+      </c>
+      <c r="N117" t="s">
+        <v>37</v>
+      </c>
+      <c r="O117" t="s">
+        <v>37</v>
+      </c>
+      <c r="P117" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>37</v>
+      </c>
+      <c r="R117" t="s">
+        <v>37</v>
+      </c>
+      <c r="S117" t="s">
+        <v>37</v>
+      </c>
+      <c r="T117">
+        <v>109</v>
+      </c>
+      <c r="U117" t="s">
+        <v>37</v>
+      </c>
+      <c r="V117" t="s">
+        <v>37</v>
+      </c>
+      <c r="W117" t="s">
+        <v>37</v>
+      </c>
+      <c r="X117" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y117" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z117" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA117" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB117" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC117" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD117" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE117" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF117" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG117" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH117" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI117" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ117" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK117" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL117" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM117" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN117" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO117" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="118" spans="1:43">
+      <c r="A118" s="2">
+        <v>109</v>
+      </c>
+      <c r="B118" t="s">
+        <v>37</v>
+      </c>
+      <c r="C118" t="s">
+        <v>37</v>
+      </c>
+      <c r="D118" t="s">
+        <v>37</v>
+      </c>
+      <c r="E118" t="s">
+        <v>37</v>
+      </c>
+      <c r="F118" t="s">
+        <v>37</v>
+      </c>
+      <c r="G118" t="s">
+        <v>37</v>
+      </c>
+      <c r="H118" t="s">
+        <v>37</v>
+      </c>
+      <c r="I118" t="s">
+        <v>37</v>
+      </c>
+      <c r="J118" t="s">
+        <v>37</v>
+      </c>
+      <c r="K118" t="s">
+        <v>37</v>
+      </c>
+      <c r="L118" t="s">
+        <v>37</v>
+      </c>
+      <c r="M118" t="s">
+        <v>37</v>
+      </c>
+      <c r="N118" t="s">
+        <v>37</v>
+      </c>
+      <c r="O118" t="s">
+        <v>37</v>
+      </c>
+      <c r="P118" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>37</v>
+      </c>
+      <c r="R118" t="s">
+        <v>37</v>
+      </c>
+      <c r="S118" t="s">
+        <v>37</v>
+      </c>
+      <c r="T118" t="s">
+        <v>37</v>
+      </c>
+      <c r="U118" t="s">
+        <v>37</v>
+      </c>
+      <c r="V118" t="s">
+        <v>37</v>
+      </c>
+      <c r="W118" t="s">
+        <v>37</v>
+      </c>
+      <c r="X118" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y118" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z118" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA118" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB118" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC118" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD118" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE118" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF118" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG118" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH118" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI118" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ118" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK118" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL118">
+        <v>110</v>
+      </c>
+      <c r="AM118" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN118" s="3">
+        <v>110</v>
+      </c>
+      <c r="AO118" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="119" spans="1:43">
+      <c r="A119" s="2">
+        <v>110</v>
+      </c>
+      <c r="B119" t="s">
+        <v>37</v>
+      </c>
+      <c r="C119" t="s">
+        <v>37</v>
+      </c>
+      <c r="D119" t="s">
+        <v>37</v>
+      </c>
+      <c r="E119" t="s">
+        <v>37</v>
+      </c>
+      <c r="F119" t="s">
+        <v>37</v>
+      </c>
+      <c r="G119" t="s">
+        <v>37</v>
+      </c>
+      <c r="H119" t="s">
+        <v>37</v>
+      </c>
+      <c r="I119" t="s">
+        <v>37</v>
+      </c>
+      <c r="J119" t="s">
+        <v>37</v>
+      </c>
+      <c r="K119" t="s">
+        <v>37</v>
+      </c>
+      <c r="L119" t="s">
+        <v>37</v>
+      </c>
+      <c r="M119" t="s">
+        <v>37</v>
+      </c>
+      <c r="N119" t="s">
+        <v>37</v>
+      </c>
+      <c r="O119" t="s">
+        <v>37</v>
+      </c>
+      <c r="P119" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>37</v>
+      </c>
+      <c r="R119" t="s">
+        <v>37</v>
+      </c>
+      <c r="S119" t="s">
+        <v>37</v>
+      </c>
+      <c r="T119" t="s">
+        <v>37</v>
+      </c>
+      <c r="U119" t="s">
+        <v>37</v>
+      </c>
+      <c r="V119" t="s">
+        <v>37</v>
+      </c>
+      <c r="W119" t="s">
+        <v>37</v>
+      </c>
+      <c r="X119" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y119" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z119" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA119" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB119" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC119" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD119" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE119" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF119" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG119" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH119" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI119" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ119" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK119" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL119" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM119" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN119" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO119" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP119" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ119" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="120" spans="1:43">
+      <c r="A120" s="2">
+        <v>111</v>
+      </c>
+      <c r="B120" t="s">
+        <v>37</v>
+      </c>
+      <c r="C120" t="s">
+        <v>37</v>
+      </c>
+      <c r="D120" t="s">
+        <v>37</v>
+      </c>
+      <c r="E120" t="s">
+        <v>37</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G120" t="s">
+        <v>37</v>
+      </c>
+      <c r="H120" t="s">
+        <v>37</v>
+      </c>
+      <c r="I120" t="s">
+        <v>37</v>
+      </c>
+      <c r="J120">
+        <v>112</v>
+      </c>
+      <c r="K120" t="s">
+        <v>37</v>
+      </c>
+      <c r="L120" t="s">
+        <v>37</v>
+      </c>
+      <c r="M120" t="s">
+        <v>37</v>
+      </c>
+      <c r="N120" t="s">
+        <v>37</v>
+      </c>
+      <c r="O120" t="s">
+        <v>37</v>
+      </c>
+      <c r="P120" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>37</v>
+      </c>
+      <c r="R120" t="s">
+        <v>37</v>
+      </c>
+      <c r="S120" t="s">
+        <v>37</v>
+      </c>
+      <c r="T120" t="s">
+        <v>37</v>
+      </c>
+      <c r="U120" t="s">
+        <v>37</v>
+      </c>
+      <c r="V120" t="s">
+        <v>37</v>
+      </c>
+      <c r="W120" t="s">
+        <v>37</v>
+      </c>
+      <c r="X120" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y120" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z120" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA120" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB120" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC120" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD120" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE120" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF120" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG120" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH120" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI120" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ120" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK120" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL120" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM120" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN120" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO120" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="121" spans="1:43">
+      <c r="A121" s="2">
+        <v>112</v>
+      </c>
+      <c r="B121" t="s">
+        <v>37</v>
+      </c>
+      <c r="C121" t="s">
+        <v>37</v>
+      </c>
+      <c r="D121" t="s">
+        <v>37</v>
+      </c>
+      <c r="E121" t="s">
+        <v>37</v>
+      </c>
+      <c r="F121" s="3">
+        <v>113</v>
+      </c>
+      <c r="G121" t="s">
+        <v>37</v>
+      </c>
+      <c r="H121" t="s">
+        <v>37</v>
+      </c>
+      <c r="I121" t="s">
+        <v>37</v>
+      </c>
+      <c r="J121" t="s">
+        <v>37</v>
+      </c>
+      <c r="K121" t="s">
+        <v>37</v>
+      </c>
+      <c r="L121" t="s">
+        <v>37</v>
+      </c>
+      <c r="M121" t="s">
+        <v>37</v>
+      </c>
+      <c r="N121" t="s">
+        <v>37</v>
+      </c>
+      <c r="O121" t="s">
+        <v>37</v>
+      </c>
+      <c r="P121" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>37</v>
+      </c>
+      <c r="R121" t="s">
+        <v>37</v>
+      </c>
+      <c r="S121" t="s">
+        <v>37</v>
+      </c>
+      <c r="T121" t="s">
+        <v>37</v>
+      </c>
+      <c r="U121" t="s">
+        <v>37</v>
+      </c>
+      <c r="V121" t="s">
+        <v>37</v>
+      </c>
+      <c r="W121" t="s">
+        <v>37</v>
+      </c>
+      <c r="X121" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y121" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z121" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA121" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB121" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC121" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD121" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE121" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF121" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG121" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH121" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI121" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ121" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK121" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL121" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM121" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN121" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO121" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="122" spans="1:43">
+      <c r="A122" s="2">
+        <v>113</v>
+      </c>
+      <c r="B122" t="s">
+        <v>37</v>
+      </c>
+      <c r="C122" t="s">
+        <v>37</v>
+      </c>
+      <c r="D122" t="s">
+        <v>37</v>
+      </c>
+      <c r="E122" t="s">
+        <v>37</v>
+      </c>
+      <c r="F122" t="s">
+        <v>37</v>
+      </c>
+      <c r="G122" t="s">
+        <v>37</v>
+      </c>
+      <c r="H122" t="s">
+        <v>37</v>
+      </c>
+      <c r="I122" t="s">
+        <v>37</v>
+      </c>
+      <c r="J122" t="s">
+        <v>37</v>
+      </c>
+      <c r="K122" t="s">
+        <v>37</v>
+      </c>
+      <c r="L122" t="s">
+        <v>37</v>
+      </c>
+      <c r="M122" t="s">
+        <v>37</v>
+      </c>
+      <c r="N122" t="s">
+        <v>37</v>
+      </c>
+      <c r="O122">
+        <v>114</v>
+      </c>
+      <c r="P122" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>37</v>
+      </c>
+      <c r="R122" t="s">
+        <v>37</v>
+      </c>
+      <c r="S122" t="s">
+        <v>37</v>
+      </c>
+      <c r="T122" t="s">
+        <v>37</v>
+      </c>
+      <c r="U122" t="s">
+        <v>37</v>
+      </c>
+      <c r="V122" t="s">
+        <v>37</v>
+      </c>
+      <c r="W122" t="s">
+        <v>37</v>
+      </c>
+      <c r="X122" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y122" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z122" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA122" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB122" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC122" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD122" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE122" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF122" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG122" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH122" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI122" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ122" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK122" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL122" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM122" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN122" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO122" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="123" spans="1:43">
+      <c r="A123" s="2">
+        <v>114</v>
+      </c>
+      <c r="B123" t="s">
+        <v>37</v>
+      </c>
+      <c r="C123" t="s">
+        <v>37</v>
+      </c>
+      <c r="D123" t="s">
+        <v>37</v>
+      </c>
+      <c r="E123" t="s">
+        <v>37</v>
+      </c>
+      <c r="F123" t="s">
+        <v>37</v>
+      </c>
+      <c r="G123" t="s">
+        <v>37</v>
+      </c>
+      <c r="H123" t="s">
+        <v>37</v>
+      </c>
+      <c r="I123" t="s">
+        <v>37</v>
+      </c>
+      <c r="J123" t="s">
+        <v>37</v>
+      </c>
+      <c r="K123" t="s">
+        <v>37</v>
+      </c>
+      <c r="L123" t="s">
+        <v>37</v>
+      </c>
+      <c r="M123" t="s">
+        <v>37</v>
+      </c>
+      <c r="N123" t="s">
+        <v>37</v>
+      </c>
+      <c r="O123" t="s">
+        <v>37</v>
+      </c>
+      <c r="P123" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>37</v>
+      </c>
+      <c r="R123" t="s">
+        <v>37</v>
+      </c>
+      <c r="S123" t="s">
+        <v>37</v>
+      </c>
+      <c r="T123" t="s">
+        <v>37</v>
+      </c>
+      <c r="U123" s="3">
+        <v>115</v>
+      </c>
+      <c r="V123" t="s">
+        <v>37</v>
+      </c>
+      <c r="W123" t="s">
+        <v>37</v>
+      </c>
+      <c r="X123" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y123" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z123" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA123" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB123" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC123" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD123" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE123" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF123" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG123" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH123" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI123" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ123" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK123" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL123" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM123" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN123" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO123" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="124" spans="1:43">
+      <c r="A124" s="2">
+        <v>115</v>
+      </c>
+      <c r="B124" t="s">
+        <v>37</v>
+      </c>
+      <c r="C124" t="s">
+        <v>37</v>
+      </c>
+      <c r="D124" t="s">
+        <v>37</v>
+      </c>
+      <c r="E124" t="s">
+        <v>37</v>
+      </c>
+      <c r="F124" t="s">
+        <v>37</v>
+      </c>
+      <c r="G124" t="s">
+        <v>37</v>
+      </c>
+      <c r="H124" t="s">
+        <v>37</v>
+      </c>
+      <c r="I124" t="s">
+        <v>37</v>
+      </c>
+      <c r="J124" t="s">
+        <v>37</v>
+      </c>
+      <c r="K124" t="s">
+        <v>37</v>
+      </c>
+      <c r="L124" t="s">
+        <v>37</v>
+      </c>
+      <c r="M124" t="s">
+        <v>37</v>
+      </c>
+      <c r="N124" t="s">
+        <v>37</v>
+      </c>
+      <c r="O124" t="s">
+        <v>37</v>
+      </c>
+      <c r="P124" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>37</v>
+      </c>
+      <c r="R124" t="s">
+        <v>37</v>
+      </c>
+      <c r="S124">
+        <v>116</v>
+      </c>
+      <c r="T124" t="s">
+        <v>37</v>
+      </c>
+      <c r="U124" t="s">
+        <v>37</v>
+      </c>
+      <c r="V124" t="s">
+        <v>37</v>
+      </c>
+      <c r="W124" t="s">
+        <v>37</v>
+      </c>
+      <c r="X124" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y124" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z124" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA124" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB124" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC124" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD124" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE124" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF124" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG124" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH124" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI124" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ124" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK124" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL124" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM124" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN124" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO124" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="125" spans="1:43">
+      <c r="A125" s="2">
+        <v>116</v>
+      </c>
+      <c r="B125">
+        <v>117</v>
+      </c>
+      <c r="C125" t="s">
+        <v>37</v>
+      </c>
+      <c r="D125" t="s">
+        <v>37</v>
+      </c>
+      <c r="E125" t="s">
+        <v>37</v>
+      </c>
+      <c r="F125" t="s">
+        <v>37</v>
+      </c>
+      <c r="G125" t="s">
+        <v>37</v>
+      </c>
+      <c r="H125" t="s">
+        <v>37</v>
+      </c>
+      <c r="I125" t="s">
+        <v>37</v>
+      </c>
+      <c r="J125" t="s">
+        <v>37</v>
+      </c>
+      <c r="K125" t="s">
+        <v>37</v>
+      </c>
+      <c r="L125" t="s">
+        <v>37</v>
+      </c>
+      <c r="M125" t="s">
+        <v>37</v>
+      </c>
+      <c r="N125" t="s">
+        <v>37</v>
+      </c>
+      <c r="O125" t="s">
+        <v>37</v>
+      </c>
+      <c r="P125" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>37</v>
+      </c>
+      <c r="R125" t="s">
+        <v>37</v>
+      </c>
+      <c r="S125" t="s">
+        <v>37</v>
+      </c>
+      <c r="T125" t="s">
+        <v>37</v>
+      </c>
+      <c r="U125" t="s">
+        <v>37</v>
+      </c>
+      <c r="V125" t="s">
+        <v>37</v>
+      </c>
+      <c r="W125" t="s">
+        <v>37</v>
+      </c>
+      <c r="X125" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y125" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z125" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA125" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB125" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC125" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD125" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE125" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF125" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG125" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH125" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI125" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ125" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK125" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL125" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM125" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN125" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO125" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="126" spans="1:43">
+      <c r="A126" s="2">
+        <v>117</v>
+      </c>
+      <c r="B126" t="s">
+        <v>37</v>
+      </c>
+      <c r="C126" t="s">
+        <v>37</v>
+      </c>
+      <c r="D126" t="s">
+        <v>37</v>
+      </c>
+      <c r="E126" t="s">
+        <v>37</v>
+      </c>
+      <c r="F126" t="s">
+        <v>37</v>
+      </c>
+      <c r="G126" t="s">
+        <v>37</v>
+      </c>
+      <c r="H126" t="s">
+        <v>37</v>
+      </c>
+      <c r="I126" t="s">
+        <v>37</v>
+      </c>
+      <c r="J126" t="s">
+        <v>37</v>
+      </c>
+      <c r="K126" t="s">
+        <v>37</v>
+      </c>
+      <c r="L126" t="s">
+        <v>37</v>
+      </c>
+      <c r="M126" t="s">
+        <v>37</v>
+      </c>
+      <c r="N126" t="s">
+        <v>37</v>
+      </c>
+      <c r="O126" t="s">
+        <v>37</v>
+      </c>
+      <c r="P126" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>37</v>
+      </c>
+      <c r="R126" t="s">
+        <v>37</v>
+      </c>
+      <c r="S126" t="s">
+        <v>37</v>
+      </c>
+      <c r="T126">
+        <v>118</v>
+      </c>
+      <c r="U126" t="s">
+        <v>37</v>
+      </c>
+      <c r="V126" t="s">
+        <v>37</v>
+      </c>
+      <c r="W126" t="s">
+        <v>37</v>
+      </c>
+      <c r="X126" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y126" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z126" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA126" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB126" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC126" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD126" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE126" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF126" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG126" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH126" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI126" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ126" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK126" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL126" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM126" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN126" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO126" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="127" spans="1:43">
+      <c r="A127" s="2">
+        <v>118</v>
+      </c>
+      <c r="B127" t="s">
+        <v>37</v>
+      </c>
+      <c r="C127" t="s">
+        <v>37</v>
+      </c>
+      <c r="D127" t="s">
+        <v>37</v>
+      </c>
+      <c r="E127" t="s">
+        <v>37</v>
+      </c>
+      <c r="F127" t="s">
+        <v>37</v>
+      </c>
+      <c r="G127" t="s">
+        <v>37</v>
+      </c>
+      <c r="H127" t="s">
+        <v>37</v>
+      </c>
+      <c r="I127" t="s">
+        <v>37</v>
+      </c>
+      <c r="J127" t="s">
+        <v>37</v>
+      </c>
+      <c r="K127" t="s">
+        <v>37</v>
+      </c>
+      <c r="L127" t="s">
+        <v>37</v>
+      </c>
+      <c r="M127" t="s">
+        <v>37</v>
+      </c>
+      <c r="N127" t="s">
+        <v>37</v>
+      </c>
+      <c r="O127" t="s">
+        <v>37</v>
+      </c>
+      <c r="P127" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>37</v>
+      </c>
+      <c r="R127" t="s">
+        <v>37</v>
+      </c>
+      <c r="S127" t="s">
+        <v>37</v>
+      </c>
+      <c r="T127" t="s">
+        <v>37</v>
+      </c>
+      <c r="U127" t="s">
+        <v>37</v>
+      </c>
+      <c r="V127" t="s">
+        <v>37</v>
+      </c>
+      <c r="W127" t="s">
+        <v>37</v>
+      </c>
+      <c r="X127" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y127" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z127" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA127" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB127" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC127" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD127" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE127" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF127" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG127" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH127" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI127" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ127" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK127" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL127">
+        <v>119</v>
+      </c>
+      <c r="AM127" s="3">
+        <v>119</v>
+      </c>
+      <c r="AN127" s="3">
+        <v>119</v>
+      </c>
+      <c r="AO127" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="128" spans="1:43">
+      <c r="A128" s="2">
+        <v>119</v>
+      </c>
+      <c r="B128" t="s">
+        <v>37</v>
+      </c>
+      <c r="C128" t="s">
+        <v>37</v>
+      </c>
+      <c r="D128" t="s">
+        <v>37</v>
+      </c>
+      <c r="E128" t="s">
+        <v>37</v>
+      </c>
+      <c r="F128" t="s">
+        <v>37</v>
+      </c>
+      <c r="G128" t="s">
+        <v>37</v>
+      </c>
+      <c r="H128" t="s">
+        <v>37</v>
+      </c>
+      <c r="I128" t="s">
+        <v>37</v>
+      </c>
+      <c r="J128" t="s">
+        <v>37</v>
+      </c>
+      <c r="K128" t="s">
+        <v>37</v>
+      </c>
+      <c r="L128" t="s">
+        <v>37</v>
+      </c>
+      <c r="M128" t="s">
+        <v>37</v>
+      </c>
+      <c r="N128" t="s">
+        <v>37</v>
+      </c>
+      <c r="O128" t="s">
+        <v>37</v>
+      </c>
+      <c r="P128" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>37</v>
+      </c>
+      <c r="R128" t="s">
+        <v>37</v>
+      </c>
+      <c r="S128" t="s">
+        <v>37</v>
+      </c>
+      <c r="T128" t="s">
+        <v>37</v>
+      </c>
+      <c r="U128" t="s">
+        <v>37</v>
+      </c>
+      <c r="V128" t="s">
+        <v>37</v>
+      </c>
+      <c r="W128" t="s">
+        <v>37</v>
+      </c>
+      <c r="X128" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y128" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z128" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA128" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB128" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC128" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD128" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE128" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF128" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG128" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH128" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI128" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ128" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK128" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL128" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM128" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN128" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO128" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP128" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ128" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="129" spans="1:43">
+      <c r="A129" s="2">
+        <v>120</v>
+      </c>
+      <c r="B129" t="s">
+        <v>37</v>
+      </c>
+      <c r="C129" t="s">
+        <v>37</v>
+      </c>
+      <c r="D129" t="s">
+        <v>37</v>
+      </c>
+      <c r="E129" t="s">
+        <v>37</v>
+      </c>
+      <c r="F129" t="s">
+        <v>37</v>
+      </c>
+      <c r="G129" t="s">
+        <v>37</v>
+      </c>
+      <c r="H129" t="s">
+        <v>37</v>
+      </c>
+      <c r="I129" t="s">
+        <v>37</v>
+      </c>
+      <c r="J129" t="s">
+        <v>37</v>
+      </c>
+      <c r="K129" t="s">
+        <v>37</v>
+      </c>
+      <c r="L129" t="s">
+        <v>37</v>
+      </c>
+      <c r="M129" t="s">
+        <v>37</v>
+      </c>
+      <c r="N129" t="s">
+        <v>37</v>
+      </c>
+      <c r="O129" t="s">
+        <v>37</v>
+      </c>
+      <c r="P129" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>37</v>
+      </c>
+      <c r="R129" t="s">
+        <v>37</v>
+      </c>
+      <c r="S129" t="s">
+        <v>37</v>
+      </c>
+      <c r="T129" t="s">
+        <v>37</v>
+      </c>
+      <c r="U129" t="s">
+        <v>37</v>
+      </c>
+      <c r="V129" t="s">
+        <v>37</v>
+      </c>
+      <c r="W129" t="s">
+        <v>37</v>
+      </c>
+      <c r="X129" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y129" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z129" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA129" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB129" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC129" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD129" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE129" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF129" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG129" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH129" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI129" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ129" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK129" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL129" s="3">
+        <v>121</v>
+      </c>
+      <c r="AM129" s="3">
+        <v>121</v>
+      </c>
+      <c r="AN129" s="3">
+        <v>121</v>
+      </c>
+      <c r="AO129" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="130" spans="1:43">
+      <c r="A130" s="2">
+        <v>121</v>
+      </c>
+      <c r="B130" t="s">
+        <v>37</v>
+      </c>
+      <c r="C130" t="s">
+        <v>37</v>
+      </c>
+      <c r="D130" t="s">
+        <v>37</v>
+      </c>
+      <c r="E130" t="s">
+        <v>37</v>
+      </c>
+      <c r="F130" t="s">
+        <v>37</v>
+      </c>
+      <c r="G130" t="s">
+        <v>37</v>
+      </c>
+      <c r="H130" t="s">
+        <v>37</v>
+      </c>
+      <c r="I130" t="s">
+        <v>37</v>
+      </c>
+      <c r="J130" t="s">
+        <v>37</v>
+      </c>
+      <c r="K130" t="s">
+        <v>37</v>
+      </c>
+      <c r="L130" t="s">
+        <v>37</v>
+      </c>
+      <c r="M130" t="s">
+        <v>37</v>
+      </c>
+      <c r="N130" t="s">
+        <v>37</v>
+      </c>
+      <c r="O130" t="s">
+        <v>37</v>
+      </c>
+      <c r="P130" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>37</v>
+      </c>
+      <c r="R130" t="s">
+        <v>37</v>
+      </c>
+      <c r="S130" t="s">
+        <v>37</v>
+      </c>
+      <c r="T130" t="s">
+        <v>37</v>
+      </c>
+      <c r="U130" t="s">
+        <v>37</v>
+      </c>
+      <c r="V130" t="s">
+        <v>37</v>
+      </c>
+      <c r="W130" t="s">
+        <v>37</v>
+      </c>
+      <c r="X130" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y130" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z130" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA130" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB130" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC130" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD130" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE130" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF130" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG130" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH130" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI130" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ130" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK130" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL130" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM130" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN130" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO130" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP130" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ130" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="131" spans="1:43">
+      <c r="A131" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="132" spans="1:43">
+      <c r="A132" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="143" spans="1:43">
+      <c r="A143" t="s">
         <v>31</v>
       </c>
     </row>
